--- a/Model Comparison - 3B SFT vs 7B SFT (n100).xlsx
+++ b/Model Comparison - 3B SFT vs 7B SFT (n100).xlsx
@@ -471,25 +471,42 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>it's county by default. the boundaries are defined by a formula historically (think easy rider, also detroit industrial county) used.</t>
+          <t xml:space="preserve">
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">50 people can't form their own city.
-It takes 1000 people.
-When you meet the 1000 people requirement, you get a charter.
-That charter is a document that says you get to form a city, but you still have to follow all the state rules. </t>
+          <t xml:space="preserve">
+Here it will most likely be considered a suburb. However, with that goes a lot of issues. If you are talking about a spot that is up on a hill where a lot of accredited cities sit, that will quickly become a bedroom community. Also, cities need revenue to operate. As a suburb the city does not benefit from a hazmat station</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'rand1': 75427, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 34145}</t>
+          <t>{'rand1': 83459, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 48740}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDc1NDI3LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMzQxNDV9'</t>
+          <t>b'eydyYW5kMSc6IDgzNDU5LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0ODc0MH0='</t>
         </is>
       </c>
     </row>
@@ -504,28 +521,26 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1) The third party article is not credible. It says its in Amsterdam but says "35 of the cameras had been stolen from hotels &amp; hospitals, being pilfered for various reasons." Seriously? Amsterdam has it's *own* security forces. You'd THINK it wouldn't be happening there. And it's unlikely that Amsterdam wouldn't have a current or recent list of locations that have CCTV that *isn't* being pilfered for</t>
+          <t>1. You actually need quite a bit more resolution if you're gonna read a license plate.  Plus you have to determine whether the camera is pointed at a license plate or someone.  Now, cameras inside cars will be a lot better, but outside just won't cut it.
+2. In this day of social media, the world in real time, pictures of police kicking people off benches is just not as powerful as if they'd showed up and arrested them on</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1) The cost of the camera.
-2) The cost of the storage.
-3) The cost of the recording software.
-4) The cost of transmitting the footage to the police/authorities.
-5) The cost of the police/authorities to view the footage.
-6) The cost of the police/authorities to store the footage.
-7) The cost of the police/authorities to dispose</t>
+          <t xml:space="preserve">
+[This video]([LINK]#t=20s) is a good example of how they are made. 
+Basically, they are cheap because they are made for a specific purpose. 
+CCTV cameras are cheap because they are made to serve a specific purpose. </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'rand1': 2351, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 83336}</t>
+          <t>{'rand1': 96606, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 6627}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDIzNTEsICdkb19zd2FwJzogRmFsc2UsICdhbnN3ZXIxJzogJzNCX2NwLTI1MDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnN0JfY3AtMjAwMC5hbnN3ZXInLCAncmFuZDInOiA4MzMzNn0='</t>
+          <t>b'eydyYW5kMSc6IDk2NjA2LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNjYyN30='</t>
         </is>
       </c>
     </row>
@@ -540,25 +555,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1) The $30B he gave away from the Bill &amp;amp; Melinda Gates Foundation doesn't come from his net worth so it's not your zero sum game, the rich guy has a lot left.
-2) Especially in countries with weak economies or high crime rates, often charity is vital.  That fact alone, makes it likely it was unfounded sarcasm.
-You can read more discussion of this here: [LINK]-bt</t>
+          <t>1) There is a lot of money in the world. It is estimated that the richest 1% of the world's population has more wealth than the poorest 50% combined.
+2) He is not giving away most of his money. He is giving away most of his *net* worth. He has pledged to give away 95% of his net worth (which is about $80 billion). That still leaves him with</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. He still owns a huge chunk of Microsoft.  He also has investments in other companies. 
-2. He doesn't give ALL of his money away.  He's still a billionaire. </t>
+          <t>1. Microsoft is the most popular PC software/hardware and is used by a majority of the 5 billion users in computers around the world.
+2. The software companies he left testing before leaving Microsoft (now Microsoft) grew rapidly over the years he stayed there, which reduced his income from spending money, but built increasing value for Microsoft.
+3. Being worth 97 billion really isn't surprising, but is sure does make people look silly if they say it sucks</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'rand1': 55891, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 11342}</t>
+          <t>{'rand1': 57143, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 58026}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDU1ODkxLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMTEzNDJ9'</t>
+          <t>b'eydyYW5kMSc6IDU3MTQzLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1ODAyNn0='</t>
         </is>
       </c>
     </row>
@@ -573,32 +588,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Population growth: we're growing faster than any other country (not counting china - america is #1).  And there are more people coming onto the current mathaking the worlds largest economy.
-2. Finding gold, and starting a bunch of new gold-mines while other countries are barely growing. Gold-mines are probably american mostly.
-3. 15 trillion dollars debt doesn't help either.
-</t>
+          <t>1. The British didn't think it was going to be anything.
+2. The US became a country in a time of peace.
+3. The US had a lot of land and resources.
+4. The US had a lot of people.
+5. The US had the newest technology.
+6. The US was a democracy, which was a good way to govern a country back then.
+The US had an</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1. They have a lot of resources.
-2. They have a lot of people. 
-3. They have a lot of land. 
-4. They have a lot of money. 
-5. They have a big, powerful military. 
-6. They have a lot of allies. 
-Those are the top 6, but I could go on.
-EDIT: I don't know how</t>
+          <t xml:space="preserve">
+edit - from what i heard yesterday there's a Spanish island in the states - right off the coast &amp;amp; they speak Spanglish. basically everyone there speaks spanish so no us towns plan on build a wall to keep the hispanic people in...</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'rand1': 99975, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 13966}</t>
+          <t>{'rand1': 45866, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 89378}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDk5OTc1LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMTM5NjZ9'</t>
+          <t>b'eydyYW5kMSc6IDQ1ODY2LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4OTM3OH0='</t>
         </is>
       </c>
     </row>
@@ -613,26 +625,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14k gold is 58.3% gold and 41.7% other stuff, so it's pretty close to the 58.5% gold you get in white gold. The other stuff is usually nickel or palladium, and it's just a matter of coloring the gold with those metals.
-Most white gold is also plated with rhodium, which is a shiny metal</t>
+          <t>24K Gold (and other yellow metals) is obtained by adding boron or carbon to normal metal, the properties of the gold are then lost when it is injected into the molten gold state but retain the proper coloration.  That process is repeated to reduce to desired limit.  Amended to clarify that:  "white gold" is colored gold, which is often 
+added to a colorless element such as 99.99% pure</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Yes, these kinds of solutions trickle down a lot.  There have been melting trees into gold discoveries already.  Then they can be treated like any other gold but still maintain the high value factors.  
-They probably aren't more reusable than normal gold but they can be melted down and put back into pressure, like a ring or necklace for example.  
-Also good sources of gold are getting harder to find</t>
+          <t xml:space="preserve"> It is alloyed with white rhodium. The rhodium is a very brittle metal, so it has to be plated on top of the yellow gold.  The rhodium wears away, and the gold underneath shows through.  The rhodium can be replated, but the cost is prohibitive, so the gold is usually just sold as yellow gold.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'rand1': 96146, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 81394}</t>
+          <t>{'rand1': 88077, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 83145}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDk2MTQ2LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4MTM5NH0='</t>
+          <t>b'eydyYW5kMSc6IDg4MDc3LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogODMxNDV9'</t>
         </is>
       </c>
     </row>
@@ -647,27 +656,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1) Humans are omnivores. That means we can eat all sorts of stuff that's bad for our teeth. Grass, leaves, nuts, seeds, insects, meat, etc. 
-2) We didn't have toothpaste. We had twigs. 
-3) Our teeth are designed to grind down our food. That's why we have molars. 
-4) Our ancest</t>
+          <t xml:space="preserve">
+ Ugly teeth was a problem in 1960s Italy. Preparation of toothpaste became an industry and there are no ugly teeth in Italy now.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Brushing teeth right before going to bed keeps plaque from forming. It doesn't get crucial because keeping the saliva flowing enough to remove bacteria from the teeth flossing keeps teeth clean.
-2. Believe it or not, alcohol is antibacterial. Take sugar drinking, it's a great source of easy sugars, and bacteria in the mouth thrives on sugar. Lots of bacteria and acidic environment makes the body more prone to infection. 
-</t>
+          <t xml:space="preserve">
+This is a great article from the Smithsonian.
+[LINK]
+EDIT: I read your comment and I'm pretty sure you already know this, but you were asking why we need to brush our teeth. This article explains the history of brushing your teeth.
+Edit 2: I'm not sure if the article is completely accurate. I'm not a scientist or anything. </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'rand1': 78691, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 43010}</t>
+          <t>{'rand1': 55081, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 33680}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDc4NjkxLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0MzAxMH0='</t>
+          <t>b'eydyYW5kMSc6IDU1MDgxLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMzM2ODB9'</t>
         </is>
       </c>
     </row>
@@ -682,27 +691,24 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1) They have a lot of debt.
-2) They have a lot of money.
-3) They don't actually have the lifestyle you witnessed.
-4) They don't actually live there.
-5) They don't actually have the money you witnessed.
-6) They don't actually have the lifestyle you witnessed.</t>
+          <t>55-60 hours a week is normal for full time retail workers.  There is probably other side work they do, but they aren't paid much from sales.  The average wage for retail workers is 15-20 hour rotation while the managers are pulling 50-60 hours at least.   The clerk is considered the line runner, and they're mostly there to pick out basic needs like clothes and groceries.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>THER FOOD! EVER FORGOTTEN? YES. THERE ARE SEASONS AND SPRING IS WORTH GOING CRAZY OVER, THE HORROR. EAT EVERYTHING YOU CAN!!!!!!</t>
+          <t>1. Americans work longer hours than people in other countries.
+2. Americans are paid more than people in other countries.
+3. Americans have been living in debt for the past 20 years.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'rand1': 71503, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 86079}</t>
+          <t>{'rand1': 56173, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 98647}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDcxNTAzLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4NjA3OX0='</t>
+          <t>b'eydyYW5kMSc6IDU2MTczLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogOTg2NDd9'</t>
         </is>
       </c>
     </row>
@@ -717,23 +723,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1993, I'm assuming, was the official date we shifted to think of everyone with medical insurance. I went to school to be a nurse... and that is the first time anyone has ever called it 'health insurance'. A few years later, people were questioning why someone like me (obviously a good health informed person) needed the insurance</t>
+          <t>1) it was a natural progression. 
+2) Health insurance was originally only available through your job because the tax code allowed your employer to deduct the cost of the insurance. So, it was a benefit that was offered to attract employees. 
+3) The tax code changed and now anyone can buy health</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Medical insurance is a heavily regulated market.  Insurance companies are not allowed to sell insurance across state lines, and they are not allowed to compete based on cost or coverage, only on customer service.  This is done to protect the customer.  They can be required to cover certain things in order to</t>
+          <t>2 X tier.
+1. what group you're looking at.
+2. what government insurance you are taking.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'rand1': 78942, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 74916}</t>
+          <t>{'rand1': 8822, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 51523}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDc4OTQyLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNzQ5MTZ9'</t>
+          <t>b'eydyYW5kMSc6IDg4MjIsICdkb19zd2FwJzogVHJ1ZSwgJ2Fuc3dlcjEnOiAnN0JfY3AtMjAwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICczQl9jcC0yNTAwLmFuc3dlcicsICdyYW5kMic6IDUxNTIzfQ=='</t>
         </is>
       </c>
     </row>
@@ -748,25 +757,24 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-[LINK]
-</t>
+          <t>1. Dictionary goes by "up" because it was used first as "up" in English. It's pretty much history at this point.
+2. It's because the word has a connotative meaning that spells "up" to many people. You could draw up a chart of common words with the same meaning as up and see what the majority answers would be.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1) The words up and down are older.   Up, among other things, means earlier than.  Lower is newer.  You could say "he came up from the basement", but probably won't.  Lower does not sound good for anything to come up, possibly why it was replaced with lower.
-2) The word up is associated with net, such as "If I net a million dollars, that</t>
+          <t>1) "Give up" is a good example. In the past, there were no elevators or escalators. You had to walk up stairs, or go up in a horse and carriage. The stairs were very steep, and it was hard to go up. You were "giving up" your energy to go up.
+2) "Fill up" is similar.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'rand1': 87221, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 67957}</t>
+          <t>{'rand1': 72893, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 79579}</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDg3MjIxLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA2Nzk1N30='</t>
+          <t>b'eydyYW5kMSc6IDcyODkzLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNzk1Nzl9'</t>
         </is>
       </c>
     </row>
@@ -781,26 +789,28 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1. Your brain is used to you moving around a lot. When you sit down, it gets confused and thinks you are sleepy.
-2. When you sit down, your blood flow slows down. When you stand up, your blood flow increases, which makes you feel more alert.
-3. The veins in your legs stretch out when you sit down. When you stand up, they get compressed, which makes you feel more alert.</t>
+          <t xml:space="preserve">
+[LINK]-can-the-body-resynchronize-itself-after-being-stuck-posture-themselves-images.jpeg
+</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-When you sit a while, blood flows out of your extremities (like your hands, feet, and arms) and flows towards your center and lower body (like your heart and your butt). While that flow is happening, less is being made to "stimulate" your muscles, so you (and your muscles) feel more tired. 
-That's all kinesthetic engrams: </t>
+          <t>1) The muscles used to support your posture are tired.
+2) The muscles involved in breathing are tired.
+3) The muscles involved in blood circulation are tired.
+4) Your brain is tired.
+You have to use more energy than you think to do nothing.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'rand1': 39452, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 80251}</t>
+          <t>{'rand1': 27828, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 21099}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDM5NDUyLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4MDI1MX0='</t>
+          <t>b'eydyYW5kMSc6IDI3ODI4LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMjEwOTl9'</t>
         </is>
       </c>
     </row>
@@ -815,25 +825,26 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1. they de-regulate information for security reasons the less info the government has the better 
-2. part head knowledge and part heart they must reddish especially after printing what the country recognises</t>
+          <t>1. The stamps are a physical record of your travels.
+2. The stamps are a physical record of the date and time of your arrival and departure.
+3. The stamps are a physical record of your visa status.
+4. The stamps are a physical record of your visa status.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1. It's a paper trail. 
-2. There are still places where the stamps are the only way to prove you've been to a place. 
-3. It's the way it's always been.</t>
+          <t xml:space="preserve">1 if you temporarily leave the country and don't want someone to put your passport into an FBI database, you can stamp it a million times
+2 as international transit points, the visa office now allows stamping and even taking the passport at that point to prevent stamps and signatures being falsified </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'rand1': 49971, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 67097}</t>
+          <t>{'rand1': 40143, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 45733}</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQ5OTcxLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNjcwOTd9'</t>
+          <t>b'eydyYW5kMSc6IDQwMTQzLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0NTczM30='</t>
         </is>
       </c>
     </row>
@@ -848,29 +859,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1) They butchered the carcass, then cut it up into pieces and stored it in salt water.
-2) They also used the blubber for lighting
-3) There were also treated as a food source, but it wasn't as plentiful as the meat, so it was only eaten in times of hardship</t>
+          <t>1. They cut off their lips and put them in a barrel. 
+2. They would throw the whale carcass overboard and let it sink. 
+3. They would haul the whale carcass back on board and use it as a ballast. 
+4. They would cut the whale carcass into manageable pieces and use it as food for the crew. 
+[Source](</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">1) the meat 
-2) organs 
-3) loose and flake 
-4) meat 
-5) meat
-</t>
+          <t>2 types will arise, traditionally.
+Either they wanted to provide meat, or oil (both after removing the blubber and the head, which made up most of the trophy). One is usually more popular than the other, because whaling is a sport, right? Not only were they a source of food, they served a purpose to the ports they docked in. They needed whale oil, especially yearly, to keep the</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'rand1': 74470, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 11096}</t>
+          <t>{'rand1': 98339, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 91608}</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDc0NDcwLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAxMTA5Nn0='</t>
+          <t>b'eydyYW5kMSc6IDk4MzM5LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA5MTYwOH0='</t>
         </is>
       </c>
     </row>
@@ -885,27 +894,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-If language has evolved, then so have genetics. Evolutionary biology takes into consideration how a species has its DNA impacted through time but only by natural mutations. If the impact is large enough, another gene appears; a new trait emerges which could be passed down through generations to the following. 
-It is generally assumed that different lineages developed independently because languages shared historical events and</t>
+          <t>1) yes, they all descended from a common ancestor
+2) they diverged and changed, just like any other species.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1) Some languages are descended from the same language that existed scores of thousands of years ago.
-2) Some languages are descended from a different language that existed scores of thousands of years ago.
-3) Some languages are descended from a different language that existed scores of thousands of years ago.
-4) Some languages are descended from a different language that existed scores of thousands</t>
+          <t>1st. There are 7 ppl on the couch. Nefarious usurpers and nazis on the flights, all doing their thing and doing it RIGHT.
+*i want to kill the radio personality and his fans on the couch*
+*i know the guy with the power grids under the couch that controls the ruthless nazis who go out</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'rand1': 68970, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 91224}</t>
+          <t>{'rand1': 37329, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 21939}</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDY4OTcwLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogOTEyMjR9'</t>
+          <t>b'eydyYW5kMSc6IDM3MzI5LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAyMTkzOX0='</t>
         </is>
       </c>
     </row>
@@ -920,26 +927,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">53% of all the electricity that flows through our taps each day contains Huffterm </t>
+          <t xml:space="preserve"> Most ISPs get their internet from other ISPs called Tier 1 ISPs.  They have backbones.  You can pay to get your internet from them. 
+Want to know more?  [LINK]-1-isp/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1. Get some space on a server.
-2. Get a domain name.
-3. Upload your files to the server.
-4. Use a script to direct people to your domain name.
-If you have more questions, ask them.</t>
+          <t xml:space="preserve">
+Well first you would get internet from a provider like Comcast or Time Warner and all they do is deliver your internet for you. 
+Now the tricky part is the servers and of course afterwords if you want customers in your website they want to come movies or something. You can get lots of different kinds of servers but most of them cost thousand of dollars and are operated by experienced coders, who are probably making alot more money than you and will probably not let you</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'rand1': 54192, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 98030}</t>
+          <t>{'rand1': 29461, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 54835}</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDU0MTkyLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogOTgwMzB9'</t>
+          <t>b'eydyYW5kMSc6IDI5NDYxLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1NDgzNX0='</t>
         </is>
       </c>
     </row>
@@ -954,27 +960,24 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1828 году гугеноты ложились в депartement Гirйон-Comtesse, близ депartmenта Кайуре, для защиты тихно bleedingхам и тихно воих, кличеж из негях, тихних наим мя, бхозенни беат и басони - те, котм</t>
+          <t>1. Zimmerman is white.
+2. Obama is biracial.  His dad was black.  His mom was white.  He identifies with his black side.  But he's also white.
+3. Zimmerman is white.  His dad was white.  His mom was white.  He identifies with his white side.  But he's also black.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-They are not the same. 
-"White" is a race. 
-"Black" is a skin color.
-It's like saying "I'm a redhead." 
-</t>
+          <t>Because Obama's father was Okracian.  A non-white race.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'rand1': 55962, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 87942}</t>
+          <t>{'rand1': 13911, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 34801}</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDU1OTYyLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogODc5NDJ9'</t>
+          <t>b'eydyYW5kMSc6IDEzOTExLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAzNDgwMX0='</t>
         </is>
       </c>
     </row>
@@ -989,26 +992,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. You would need to get a lot of food in order to get the right amount of vitamins.
-2. Your body needs more than the vitamins in the supplements, it also needs the other nutrients found in food.
-3. If you get enough vitamins your body can turn them into the nutrients it needs.
-4. Vitamins are only a small part of the nutrients you need.
-</t>
+          <t xml:space="preserve">26 years ago I was diagnosed with a very rare form of anemia.  The only way to treat it was to eat a diet of mostly meat and vegetables.  I had to eat 3 times the amount of food of the average person.  I managed it for almost 2 years.  The food tasted like shit.  I was overweight so I lost a lot of weight.  The food tasted like shit. </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29 proteins, 13 carbs, 6 fatty acids, and a few minerals. A week's worth of food is 2,561mg of B vitamins, 266mg of basic fats, 1,475 calories, and 3,697mg of protein, as a rough guide. We're not functional and not present a significant threat to others unprovoked outside of the lab. We should presume we'</t>
+          <t>edit: thanks Zoltar</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>{'rand1': 14636, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 86053}</t>
+          <t>{'rand1': 94556, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 91918}</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDE0NjM2LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4NjA1M30='</t>
+          <t>b'eydyYW5kMSc6IDk0NTU2LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA5MTkxOH0='</t>
         </is>
       </c>
     </row>
@@ -1023,28 +1022,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.  Your headphones are wired to the microphone jack (plugged in).
-2.  Your microphone is wired to the headphone jack (plugged in).
-3.  The microphone jack is wired to the headphone jack (plugged in).
-4.  The microphone jack is wired to the speaker jack (plugged in).
-5.  The speaker jack is</t>
+          <t xml:space="preserve">
+Lots of headphones have a pad at the end that can be pasted over the analog mic input. Read the box on the back of the amp on the headphone jack, they always say something about using the microphone in one direction ONLY. 
+</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
           <t xml:space="preserve">
-With the sound not being sent to the headphones but rather into some sort of'messy' line-in which covers the standard microphone input, the headphones are fairly directional (being stereo) while music and speech direction is not really necessary for these inputs so you get fairly lost 'echoes' back to the headphones which can be panned 0-180 to give a very sharp directional sound eaten by your headphones.
-Its pretty damn cool stuff if</t>
+&amp;gt; Why does it work?
+It doesn't. 
+&amp;gt; Why do I think it does? 
+Because you hear the sound of the microphone picking up the sound of the headphone. 
+&amp;gt; How does it work?
+The microphone amplifies the sound from both the headphone and the outside world. 
+&amp;gt; Why does it work?
+It doesn</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>{'rand1': 28586, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 67475}</t>
+          <t>{'rand1': 9437, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 96045}</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDI4NTg2LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA2NzQ3NX0='</t>
+          <t>b'eydyYW5kMSc6IDk0MzcsICdkb19zd2FwJzogRmFsc2UsICdhbnN3ZXIxJzogJzNCX2NwLTI1MDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnN0JfY3AtMjAwMC5hbnN3ZXInLCAncmFuZDInOiA5NjA0NX0='</t>
         </is>
       </c>
     </row>
@@ -1059,24 +1062,24 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1) To protect the building from debris 2) To allow for the building to be cleaned 3) To allow the building to be repaired 4) To allow for the building to be painted 5) To allow for the building to be renovated 6) To allow for the building to be inspected 7) To allow for the building to be replaced 8) To allow for the</t>
+          <t>1. The scaffolding is a safety measure to protect the public from falling debris.
+2. It creates an additional surface area for advertising.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-[LINK]
-It's called a roof garden. </t>
+          <t xml:space="preserve">30 years ago when I lived in NYC, curbs weren't there and the city tore down old buildings and rebuilt them. A lot of the torn down structures were in mid-town southern area and the old edifices for many years were built with the sidewalk the first floor of the building to the very top above the street. To correct what you're seeing 
+</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>{'rand1': 90350, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 11443}</t>
+          <t>{'rand1': 67346, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 42990}</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDkwMzUwLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAxMTQ0M30='</t>
+          <t>b'eydyYW5kMSc6IDY3MzQ2LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0Mjk5MH0='</t>
         </is>
       </c>
     </row>
@@ -1091,29 +1094,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">16 million people are starving. When a country is dying, piracy aircraft you buy them Russian missiles.  
-The USA is not allied with North Korea. Trump is your best friend. 
-0.5  Mass starvation
-1   Pirates 
-10  USA
-So, pirates win. </t>
+          <t xml:space="preserve">1) Because it obviously annoys the US, and the international taboo does not allow China to go up to the US and say this is our sophiticated system and you are this primitive regime. So while it annoys the US it doesnt cause a world war.
+2) Because North Korea providing leadership to the lil Kim within a developing country gives China some way to exert power itself by lobbying on behalf of the North Korean government demanding material. </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1. North Korea is a buffer state, keeping the Americans from just marching into China.
-2. China is in a position to dictate terms to the US.  If they can threaten the US with North Korea, they can extort more concessions from the US.
-3. The North Korean military is a deterrent against invasion by South Korea.  If China wants to invade and take over North Korea, they can't do it without a fight.</t>
+          <t>1) China and North Korea share borders, and China is very protective of its land.
+2) China and North Korea are allies, and China doesn't want to upset its allies.
+It's not like China and North Korea are the best of friends, but they're allies, and allies don't do things like attack each other.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>{'rand1': 11407, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 76134}</t>
+          <t>{'rand1': 45323, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 24360}</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDExNDA3LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNzYxMzR9'</t>
+          <t>b'eydyYW5kMSc6IDQ1MzIzLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMjQzNjB9'</t>
         </is>
       </c>
     </row>
@@ -1128,23 +1127,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1) Lucifer is just a common name, it wouldn't mean anything in the original Jewish context. When people speak of the devil, they're usually speaking figuratively. 2) Damian, Satan, etc. are religious terms - actually devils in Christian context are such called 'fallen angels'. Satan for example is a word that's specific to Christianity. 3) there are many theories about why and how they came</t>
+          <t>1 the "ordinary" one exists not, seems to need ass and as "dark" as he is supposed to be, hasn't seen as proper echoes since...maybe 15th century? 3 so to speak.
+2 predecessors, fellow demons, all of them the same kind of creature (creation, in that case, of good old god, who seemingly showed a serious lapse of judgement about then very clear</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
           <t xml:space="preserve">
-There is no such thing as the devil.  If you were to ask a Christian about this, they will tell you it is a metaphor for sin.  They would tell you that the devil does not exist, but that sin does.</t>
+Lucifer: The light-bringer. In many religions, "Lucifer" is the name for Satan. In Christianity, it's the name of the angel who was cast out of heaven because he wanted to be God. 
+Devil: From the Latin word, "diabolus," which means "slanderer." 
+Damian: Doesn't have</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>{'rand1': 17604, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 70559}</t>
+          <t>{'rand1': 88504, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 69827}</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDE3NjA0LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNzA1NTl9'</t>
+          <t>b'eydyYW5kMSc6IDg4NTA0LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNjk4Mjd9'</t>
         </is>
       </c>
     </row>
@@ -1159,26 +1161,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2 main ideas.
-1) User ID Trackers - You may have logged into Facebook multiple times through a friend's browser without realizing. The cookies are 2 separate things - one is the current cookie, the other is last times visits. So when you surf browser hopping, you'll have several cookies associated with many sites. 
-2) Retargeting Facebook ads - Facebook knows not just</t>
+          <t>1) facebook has a shadow profile of every user with all of your likes, interests, searches etc.
+2) facebook knows what pages you like and what things you search for.
+3) facebook knows what you clicked on.
+4) facebook has a system that can match those things against its shadow profiles and target them at you.
+Your log in is just the cher</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1. Facebook has access to a lot of data, including what you search for.
-2. They have a lot of ways of tracking you, including cookies, and by analyzing your browser.
-3. They can use that information to make targeted ads.</t>
+          <t xml:space="preserve">1-you set u must not delete your Adblock plus/u block origin.
+2-You may have set up cookies on your computer, like Facebook does.
+Even more complex would be if Facebook are profiling you. Whether using retargeting. That will happen more my ads. 
+</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>{'rand1': 51502, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 78779}</t>
+          <t>{'rand1': 78629, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 53187}</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDUxNTAyLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNzg3Nzl9'</t>
+          <t>b'eydyYW5kMSc6IDc4NjI5LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1MzE4N30='</t>
         </is>
       </c>
     </row>
@@ -1193,31 +1198,26 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1. The power plants that generate the electricity.
-2. The transmission lines that carry the electricity.
-3. The battery.
-4. The battery charger.
-5. The battery recycler.
-6. The battery disposal.
-7. The manufacturing process.
-8. The fuel used to power the manufacturing process.
-9. The mining process to get the minerals used in the battery</t>
+          <t>2010 gmc sierra.  I tested the EPA's L4 gt walkaround on it and got an average 18mpg.  The leakage/fuel pollution from the combustion engines is vastly overstated, and the impact makes it seem enormous.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1/ They create excess voltage on the car as it operates.  This is maybe a dirty light bulb or something, but it gets something into the ground.  People say this is bad, but pollution, while certainly bad, is not unlimited so for the sake of argument we'll call it neutral.
-2/ They simply create more electricity and noise pollution when idling.  The engine does not stay at full on most of the time, only to get up to full when you</t>
+          <t xml:space="preserve">
+They are correct. 
+The pollution from an electric car is generated by the power plant that produces the electricity. 
+Electricity is generated by burning coal or natural gas, and these power plants are much dirtier than the average car. 
+Electric cars are much cleaner than gasoline cars, but the difference is minimal compared to the difference between coal and gasoline.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>{'rand1': 33177, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 49348}</t>
+          <t>{'rand1': 25790, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 69070}</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDMzMTc3LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0OTM0OH0='</t>
+          <t>b'eydyYW5kMSc6IDI1NzkwLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNjkwNzB9'</t>
         </is>
       </c>
     </row>
@@ -1232,25 +1232,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1 big place to argue that people are innocent until proven guilty is used a lot in courtrooms. This is a pretty old legal theory called the adversarial system. In the criminal process you have two sides presenting their case. Even though fighters who are pro can argue against someone giving evidence at a boxing match, they don't get to negate the case their opponent or the referee get because their cases are a part of the system and they have to prove their cases in trial.</t>
+          <t>1) The person is dead and can't be prosecuted
+2) The person is not in the US
+3) The person is not a US citizen
+4) The person is not under US jurisdiction</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1. They are not admitting to crimes, they are discussing their role in the crime. 
-2. They are discussing their role in the crime while in prison, and have no reason to lie about it. 
-3. They are discussing their role in the crime while in prison and are not under oath. 
-Edit: 4. Often, people are interviewed while in prison. In prison, there is no reason for them</t>
+          <t>1. Criminal Lifers are common in the U.S. - [LINK]-life_term_statistics/
+2. The United States, unlike some other countries, still use the death penalty, although much less frequently than before 1976. In 2010, it was rare that a death penalty case went through the entire process and 1 (one) person was hanged. An additional 691 declined to be executed.
+An</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>{'rand1': 20892, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 67938}</t>
+          <t>{'rand1': 73369, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 54151}</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDIwODkyLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNjc5Mzh9'</t>
+          <t>b'eydyYW5kMSc6IDczMzY5LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1NDE1MX0='</t>
         </is>
       </c>
     </row>
@@ -1265,25 +1267,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">1) Humans are full of parasites that are not so tasty.
-2) Humans are not as tasty as other prey, and they are not as easy to get at.
-3) Humans are not that tasty. </t>
+          <t>1) Humans are one of the few animals that will fight back with a good chance of winning. 2) Humans are also one of the few animals that will kill you for eating a member of the same species. 3) There's also the fact that humans tend to be smarter and faster than most animals, so they're a lot more dangerous to predators than most animals.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1 answer: The biggest difference between a human and an animal is that no human has the same reaction to odor that most other animals DO.  
-Humans will pick up the genetics in the environment, and learn to tolerate them even though they prob don't experience them.  Sampling is not included in the animals menu.</t>
+          <t xml:space="preserve">1. Humans are smarter and significantly more durable then many predators eat. 2. Many predators eat their human prey raw. Shark meat is delicious, but if it's three days later when someone gets attacked by a shark, the flesh isn't so delicious. 3. Most predators are territorial and in an urban tourist trap your  prey would  be less squishy by the time they arrived. </t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>{'rand1': 91941, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 88756}</t>
+          <t>{'rand1': 90725, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 81526}</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDkxOTQxLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4ODc1Nn0='</t>
+          <t>b'eydyYW5kMSc6IDkwNzI1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4MTUyNn0='</t>
         </is>
       </c>
     </row>
@@ -1298,23 +1297,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1/ The odds of anyone else becoming leader is vanishingly small since there isn't any semblance of democracy 
-2/ Kim is kind of a caricature anyway, is he really the guy that murdered the North Korean leader? Whoever was going to give him back his immunity was probably going to, since it was easier just to nuke towards that goal rather than risk Kim</t>
+          <t>30 years ago we were all sure that the USSR would collapse after the death of Stalin.  But it didn't happen.  The chain of command is so well established in North Korea that it will just keep going.  Probably to the detriment of the citizens.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1. The country would be a better place. 2. North Korea would be a better place. 3. Kim Jong-un would be dead. 4. Kim Jong-un's family would be dead. 5. Kim Jong-un's cronies would be dead. 6. North Korea would be a better place. 7. Kim Jong-un would</t>
+          <t>1) No one has tried before.  Jerusalem was taken by aggressive force, despite Jerusalem being the most important city in Judaism, remainders of it survive to this day.
+2) Do it poorly and be executed.  Good luck with one of the few benefits of being a small nation where the breeding population is zero.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>{'rand1': 64609, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 21692}</t>
+          <t>{'rand1': 49863, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 97144}</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDY0NjA5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMjE2OTJ9'</t>
+          <t>b'eydyYW5kMSc6IDQ5ODYzLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA5NzE0NH0='</t>
         </is>
       </c>
     </row>
@@ -1329,24 +1328,26 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2 videos of the same spot on a movie clip, either on the same camera or offset so there's differences between them
-If they ban one, then there's one that's still there.</t>
+          <t>1. Mirror sites are hosted on different servers.
+2. Mirror sites are not as well known as the original site.
+3. Mirror sites are not as well known as the original site.
+4. Mirror sites are not as well known as the original site.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-[LINK]</t>
+          <t>1990s Die Hard and 2008 Joker? I know what we saw it but does that video make it obvious? 
+Also Chris dagget channel reacts to almost all videos. Chris knows if it was reported. therefore we have quicker reactions to what is reported but if a video is edited well?</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>{'rand1': 50569, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 12325}</t>
+          <t>{'rand1': 49380, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 5297}</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDUwNTY5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMTIzMjV9'</t>
+          <t>b'eydyYW5kMSc6IDQ5MzgwLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1Mjk3fQ=='</t>
         </is>
       </c>
     </row>
@@ -1361,24 +1362,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1. They are used to distinguish one currency from another.
-2. The lines are usually horizontal.  The lines can be vertical, but it's much less common.  When vertical, it is usually to show that the currency is "new" or "recently introduced", or that it has a different value than the regular currency.  For example, the Euro has a vertical line through it</t>
+          <t>5/2
+[LINK]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> a long time ago most of the world used the most recognizable Roman Numerals, since that is what everyone knows.
-So the Emperor took it upon himself to have the Mark of the Roman XII Triangle Bead engraved into the coins, thus it has no history of anyone figuring it out, justifying why there is only a couple of different styles of tattoos. Basically, he just wanted</t>
+          <t xml:space="preserve">
+&amp;gt;Why do currency Symbols always have one or two lines through them
+To distinguish the currency from the number. 
+&amp;gt;And where is the difference between one line, two lines, horizontal and vertical ones?
+The differences are arbitrary. 
+&amp;gt;Why are there different symbols for different currencies?
+The same reason there are different symbols for different</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>{'rand1': 98918, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 34433}</t>
+          <t>{'rand1': 31689, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 11818}</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDk4OTE4LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAzNDQzM30='</t>
+          <t>b'eydyYW5kMSc6IDMxNjg5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMTE4MTh9'</t>
         </is>
       </c>
     </row>
@@ -1393,24 +1399,23 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">ive seen it done in movies multiple time, not groundbreaking but... the family and the production company did.  
-I think its to help with target audience appeal, the movie had a marketing plan for that "target" - girls. </t>
+          <t xml:space="preserve">It's certainly a legal issue, and I believe traveling between states is legal as well, depending on where you are from. There might be laws against it specifically for certain channels though, because it's more common for straight men to want to see women topless from time to time, especially on Victoria's Secret commercials when they want very explicit sexuality specifically for the male demographic. </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-It's not legally allowed. It's a social construct. If you're willing to wear a bra and go topless in public, then you're not a woman. </t>
+          <t xml:space="preserve"> The FCC has a pretty narrow definition of "female", and it has to do with the shape of their breasts.  There is a requirement that they be "feminine", and that's interpreted pretty strictly.  
+I'm not sure if there's a specific rule about dick.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>{'rand1': 57252, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 78862}</t>
+          <t>{'rand1': 2691, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 79542}</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDU3MjUyLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNzg4NjJ9'</t>
+          <t>b'eydyYW5kMSc6IDI2OTEsICdkb19zd2FwJzogRmFsc2UsICdhbnN3ZXIxJzogJzNCX2NwLTI1MDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnN0JfY3AtMjAwMC5hbnN3ZXInLCAncmFuZDInOiA3OTU0Mn0='</t>
         </is>
       </c>
     </row>
@@ -1426,23 +1431,23 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The axial tilt is the main reason for seasons. The distance of the sun is the main reason why the sun is hot.</t>
+*The distance from the sun does dictate seasons. If the earth was closer to the sun, it would be hotter. If the earth was further from the sun, it would be colder.
+The tilt of the earth is what causes the seasons. If the earth was flat, there would be no seasons because the sun would always be shining directly down on the same part of the earth.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2 axial tides quarter Moon month and Full Moon month.
-On that, 1 degree of the axis of earth is around 23 million km from the Sun. And even more if you have had tides  and time zones change over the years.</t>
+          <t>° the tilt of the earth causes a difference between the East and the west face of the earth, if accompanied by an atmosphere with plentiful moisture in the air, rain falls. When you see a cityscape with bistres through the clouds and trees through the other side it is because of dust from major eruptions in the areas ok silicon valley, it is gold or pink kaaf because of dust in the external moons from karuvikon</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>{'rand1': 21662, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 60487}</t>
+          <t>{'rand1': 52277, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 84237}</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDIxNjYyLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA2MDQ4N30='</t>
+          <t>b'eydyYW5kMSc6IDUyMjc3LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4NDIzN30='</t>
         </is>
       </c>
     </row>
@@ -1457,26 +1462,26 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. You're less likely to make a mess if you open the freezer slowly. 
-2. You're less likely to make a mess if you close it slowly. 
-When you close the freezer, you're compressing the air in there, and air is really hard to compress.  When you open it, that air has to expand, and it expands faster if you open it slowly. </t>
+          <t xml:space="preserve">
+In the freezer, the air is frozen, so when you open the door, you're letting the air back into the freezer, which makes it colder. 
+In contrast, when you close the door, you're taking the air out, which makes it warmer. 
+When you open the door, you're doing both at the same time, and your body heats up, so its harder to cool down. </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1 NSF Longevity represents the minimum period of time between taking contents out of a refrigerated space and putting additional foodstuffs into that same space.  For food, they set this at about 4 hours.
-At room temperature, ice forms on the surface and some water vapour from the original ice sublimates off into the air.  The reverse process leaving water which can be absorbed back into the block of ice.  
-When the</t>
+          <t>1. High humidity makes that stuff stick.
+2. It creates a very annoying noise that is difficult to hear.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>{'rand1': 83902, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 75921}</t>
+          <t>{'rand1': 10309, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 43746}</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDgzOTAyLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3NTkyMX0='</t>
+          <t>b'eydyYW5kMSc6IDEwMzA5LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0Mzc0Nn0='</t>
         </is>
       </c>
     </row>
@@ -1491,29 +1496,24 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1. I get a lot of energy.
-2. I get stronger.
-3. I get more endurance.
-4. I feel better.
-The long term effects are that you get tired faster, you can't get as much nitrogen into your muscles, and you get more inflammation.
-If I were a professional athlete, I would only use PEDs for a short period of time.  After that, your body</t>
+          <t>1. Leverage before Long-term proper training.
+2. Nobody really knows what the penalty for use of Performance Enhancing Drugs is.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">37 athletes (37!) in the Sochi Olympics have tested positive for doping.  They marked it as a "deep fuckup" on their website.  None of the athletes has said that they did not do the drugs to try to improve their performance, but it was marked like that for casual misuse.
-Tend to follow with you.  Helps but as you age other benefits kinda outweigh it.
-</t>
+          <t>50% increase in testosterone levels over a few months.
+It's not permanent, but it's enough to make a huge difference.  Some athletes are able to maintain that level for several years.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>{'rand1': 97472, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 66854}</t>
+          <t>{'rand1': 92259, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 9931}</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDk3NDcyLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA2Njg1NH0='</t>
+          <t>b'eydyYW5kMSc6IDkyMjU5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogOTkzMX0='</t>
         </is>
       </c>
     </row>
@@ -1528,23 +1528,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Basically, they are like roadside pay-for-plays (trucks, road-side signs, public announcements. like the one Greyhound corporate logo took the red out of "Greyhound" to make some corporate logo) dispensaries where, the user pays for "nugs".  The payer is responsible for the safe storage of the amount of cannabis. </t>
+          <t>&amp;gt; &amp;gt; &amp;gt; So basically like a bank
+That is called a safe open, and if you haven't heard of it is almost always a bank/financial institution where you can put your money in a dormer box and they open it once a month to check its balance.  They don't give you the information to check the balance but they say they send you a card with the balance once a month.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">10x10x10 is a standard size. You pay a monthly fee to store things there. The fees are based on the size of the unit and how long you want to store things. You can store anything you want there. 
-Source: I own a storage unit. </t>
+          <t xml:space="preserve">
+[LINK]
+</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>{'rand1': 76841, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 98070}</t>
+          <t>{'rand1': 21132, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 69019}</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDc2ODQxLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogOTgwNzB9'</t>
+          <t>b'eydyYW5kMSc6IDIxMTMyLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNjkwMTl9'</t>
         </is>
       </c>
     </row>
@@ -1559,25 +1561,26 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1) As I understand it, incest has a higher or equal probability of birth defects to older age given that younger populations have a lower life expectancy. 
-That being said, only a short sighted view ofcallback would regard reducing birth defects in older populations as an issue to be against. If the lower life expectancy could be interpreted as a risk towards the population at large, then it is more a political question</t>
+          <t>1) Society has a tendency to shun anything that is different.
+2) Inbreeding is a lot more likely in small communities, especially in the past, and is therefore more likely to be concentrated in one region or group.
+3) Inbreeding has been shown to increase the risk of birth defects.
+4) The elderly have a much lower chance of</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">1: Incest is shunned because it's a psychological crutch for people to keep from having to deal with their own issues. Incest is only a problem because of the emotional fallout.
-2: The elderly are generally not at risk of having children. 
-3: There are many elderly people who have kids. </t>
+          <t>2 girls and 2 boys per pregnancy is ideal. The eggs dont mature and the fetus is healthy if both parents are healthy at about the same time.
+Two elderly parents are going to have different health and fertility issues compared to two younger parents.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>{'rand1': 1125, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 56968}</t>
+          <t>{'rand1': 17865, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 62062}</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDExMjUsICdkb19zd2FwJzogRmFsc2UsICdhbnN3ZXIxJzogJzNCX2NwLTI1MDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnN0JfY3AtMjAwMC5hbnN3ZXInLCAncmFuZDInOiA1Njk2OH0='</t>
+          <t>b'eydyYW5kMSc6IDE3ODY1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA2MjA2Mn0='</t>
         </is>
       </c>
     </row>
@@ -1592,24 +1595,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1) Shelter is a good thing. We evolved in a hostile environment. Sitting in a cave is great. Sitting in a cave by yourself is bad.
-2) We are social animals. We evolved to live in groups. We are not good at living alone.</t>
+          <t xml:space="preserve">2 things: 
+1. It's really, really hard to be happy all by yourself.
+2. It's really hard to be happy all by yourself with no money. </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1 - causes schizophrenia
-Because of illness (more precisely brain disease), sufferers often end up with odd situations in which they fail to be social by default whilst experiencing extreme social responses ("probably" schizophrenic), lack of social situation may set this brain disease off and start the processes that follow; obviously, nobody knows why this happens, but there are theories.</t>
+          <t>1. People generally like to socialise with their friends.  
+2. Our ability to plan for the future has more often than not back-fired on those who tried to prepare for a time in the not too distant future when humanity becomes a functionally extinct civilization. Planning for the future means that you will have to consider things and factors beyond your control.  
+3. The arts, when possible, tell stories based on human traditions and mythology.  
+4. The arts are often</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>{'rand1': 36150, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 43337}</t>
+          <t>{'rand1': 56290, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 79188}</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDM2MTUwLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0MzMzN30='</t>
+          <t>b'eydyYW5kMSc6IDU2MjkwLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3OTE4OH0='</t>
         </is>
       </c>
     </row>
@@ -1624,27 +1630,26 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1879. The "Rampant corruption" in police - pretty much everywhere at that time!
-The new "exclusive agency" would investigate federal corruption in crimes, even go after bogus tickets from U.S. Marshalls, hence sign up as US Marshalls for their own department.
-In population-rich, modern America, the US Marshal is all but effectively a badge of insolvency - a Sherrif needs jobs,</t>
+          <t xml:space="preserve">
+[LINK]-fbi-was-created-to-do-what-the-us-marshals-couldnt-do-why-the-fbi-is-still-here-today/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-The FBI is a federal agency while the Marshal's service is a branch of the US Justice department. 
-The FBI handles the investigation of federal crimes, 
-The Marshal's Service handles the service of court orders, warrants, and the like. </t>
+          <t>1) Quicker response to potential situations.
+2) Treating each major location (general headquarters? crime headquarters?) as its own "field". So things like the leader of a mob or a terrorist is simply "committed" to a particular field rather than being at the general headquarters unless something comes up they need to deal with quickly.
+There are still departments that visit places to support and/or investigate on behalf of the federal government, including DEA agents.
+But</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>{'rand1': 82416, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 32932}</t>
+          <t>{'rand1': 15863, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 21253}</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDgyNDE2LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMzI5MzJ9'</t>
+          <t>b'eydyYW5kMSc6IDE1ODYzLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAyMTI1M30='</t>
         </is>
       </c>
     </row>
@@ -1659,26 +1664,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1. powerful navy and position of self ownership before america got there. the british also denied pirates rights to own their ship in order to help the colonies. 2. huge economies in both trade and mideast oil trade 3. colonists were well educated biblical scholars and a close match to the mindset of US founding father. 4. economy of scale with their manufacturing opened doors to competition and massive</t>
+          <t>1. They had a navy.
+2. They were willing to go to war to get it.
+3. They had a common culture.
+4. They had a common language.
+5. They had a common religion.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1. The British Navy was the strongest in the world.
-2. The British were the most active in colonizing the world.
-3. The British had the most trade.
-4. The British were one of the most technologically advanced countries in the world.
-5. The British had the most money.</t>
+          <t>1/ Britain paid for colonization. People in the colonies paid money to the British. Sometimes these people got some benefits in return.
+2/ The British had a LOT of very cheap salt that sold a LOT of slaves in the colonies. White indentured servants tended to stay and help make the colony work, so a lot could be made by replenishing the indentured servants every few years. People</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>{'rand1': 57532, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 74629}</t>
+          <t>{'rand1': 83841, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 75773}</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDU3NTMyLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNzQ2Mjl9'</t>
+          <t>b'eydyYW5kMSc6IDgzODQxLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3NTc3M30='</t>
         </is>
       </c>
     </row>
@@ -1693,27 +1699,24 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>100 million dollars is not a massive net worth. Its a pretty large net worth, but not massive.</t>
+          <t>1500000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-- Buying assets
-- Real estate
-- Stocks/ Bonds
-- Private jets
-- I could go on.  Plus some really rich people even build whole towns, make donations, etc.  Wall Street is something to do, it's not just making money day in and day out.  Maybe you picked the wrong profession?</t>
+          <t>1. They dont manage their money. It just stays there.  
+2. It gets managed by people whom having a certain degree of understanding it. They mostly originate from  "elite" universities. 
+3. In 90s Eastern europe we have never seen and heard anyone with amount of money like this. I bet even in Russia the closest "incident" will be Aras Agalarov and</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>{'rand1': 36182, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 12685}</t>
+          <t>{'rand1': 2788, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 94435}</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDM2MTgyLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAxMjY4NX0='</t>
+          <t>b'eydyYW5kMSc6IDI3ODgsICdkb19zd2FwJzogVHJ1ZSwgJ2Fuc3dlcjEnOiAnN0JfY3AtMjAwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICczQl9jcC0yNTAwLmFuc3dlcicsICdyYW5kMic6IDk0NDM1fQ=='</t>
         </is>
       </c>
     </row>
@@ -1728,26 +1731,23 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5 Hour Energy is actually a mixture of caffeine and sugar.  
-One of the other ingredients is a lot of vitamins, and I'm not sure about the rest.
-The main ingredient in Marlboro Lights is tobacco.  
-So the reason is that nicotine is an addictive substance</t>
+          <t>5 He had a hold over research on the topic after a flurry of exposure concerning the safety. ROFL on 5. Any other product you are considering can not deal with "bottom shelf" material... it just doesn't worth it to them to do it. Similarly, "bottom shelf" product often won't hold/stay up to the 80 proof, meaning no by products...</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5hrs isn't even a nicotine product. It's caffeine, sugar and a "natural energy boost"..and it's not allowed to market as 5hrs either.
-They didn't want to market it as a calm-down-in-a-tower option. It has a bad reputation that way.</t>
+          <t>1. Nicotine is a drug that is addictive. 2. Nicotine is a drug that kills. 3. Nicotine is a drug that is a health hazard. 4. Nicotine is a drug that increases the risk of cancer.  
+5. Nicotine is a drug that causes birth defects when pregnant.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>{'rand1': 67647, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 54129}</t>
+          <t>{'rand1': 43250, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 85243}</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDY3NjQ3LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1NDEyOX0='</t>
+          <t>b'eydyYW5kMSc6IDQzMjUwLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogODUyNDN9'</t>
         </is>
       </c>
     </row>
@@ -1762,22 +1762,25 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">1980s is a period of music more so than a decade; the clothes, the dances, the television shows in advertising, the country music shot to death by the media, etc.  The 80s was the first time that the total influence of television was strongest outside of sitcoms.  There was music that in the main had nothing to do with the radio.  With that,Of genres were born.  </t>
+          <t>80s is a subculture in it's own right which many people are familiar with, which extends to slang used in different chatrooms and other forms of pop culture. The fashion and aesthetics is distinct and shared, if you lived in the 80s you could very much draw your own conclusions about how this worked. Maybe some others will elaborate.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">80's music was heavily influenced by disco, and disco was heavily influenced by 60's music. So it was a lot of the changes from the 60's that made 80's music what it was. </t>
+          <t>80's music was a result of 2 major phenomena:
+1) The developement of synthesizers and electronic instruments.
+2) The developement of the music video.
+The synthesizers opened the door for a new kind of sound.  And the music video opened the door for a new kind of visual appeal.  Together they formed a new kind of musical experience.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>{'rand1': 63290, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 15380}</t>
+          <t>{'rand1': 54808, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 95852}</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDYzMjkwLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMTUzODB9'</t>
+          <t>b'eydyYW5kMSc6IDU0ODA4LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogOTU4NTJ9'</t>
         </is>
       </c>
     </row>
@@ -1792,26 +1795,25 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1: It's not a muscle. Your eyes are made up of a combination of muscles and bones.
-2: Your eyes do not work by the same principle as muscles.
-3: Your eye muscles are not the problem. The problem is that your eye's focus is not properly aligned with your brain, and that is not something that can be fixed by exercising.</t>
+          <t>2nd photo of eyelids</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">1) Muscle apartment is generally fixed.
-2) The outer 'coloured part' of the eye needs automatic correction of incoming light. If not corrected the eye starts showing signs of getting worse.
-3) If light is anyway unable to be subtly corrected automatically then it would change the general correcting power of the eye and it's very, very dangerous. Imagine prism sunglasses that shifted the colours to other parts of your </t>
+          <t>1.   Too often people who have bad eyesight are told it's genetic and there's nothing they can do about it. This is not true.
+2.  There is no exercises that will improve eyesight.
+3.  There are exercises that can improve your eye muscles. But these exercises don't make your eyesight better.
+4.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>{'rand1': 77693, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 18002}</t>
+          <t>{'rand1': 46301, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 58457}</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDc3NjkzLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAxODAwMn0='</t>
+          <t>b'eydyYW5kMSc6IDQ2MzAxLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNTg0NTd9'</t>
         </is>
       </c>
     </row>
@@ -1826,24 +1828,26 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1) Buy the Wrench The tacit understanding in America for more than a hundred years has been the middleman, who then promotes and displays the product, is the customer, not the manufacturer.  The retail price of the wrench isn't the manufacturer's price.  If the manufacturer reduced the wrench to minimum wage, or screwed it with a high price, one could argue that discouraged them form doing business together.
-It doesn't seem to make sense</t>
+          <t xml:space="preserve">
+They can.  Think of the cars as a bunch of attendees at a convention mostly seated in the same room.  They each want the same brochure, someone has to deliver it for them.  Go buy one car; the manufacturer has to make another car for you. Same applies to an actual showroom.  
+Now imagine you not having to buy each car.  If I buy one car, you buy one car.  We can buy all the cars we want at wholesale at</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1) It's hard to make it worth your time to deal with a bunch of people who had to take their cars to the dealer to get repairs done, and know that they're going to have to take their cars back to the dealer for repairs. 
-2) It's hard to make it worth your time to deal with a bunch of people who wanted the dealer's "special" service, and know that they're going to have to</t>
+          <t xml:space="preserve">
+[LINK]-direct-sales.html
+It's a pretty simple answer.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>{'rand1': 99457, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 97092}</t>
+          <t>{'rand1': 1299, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 21578}</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDk5NDU3LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogOTcwOTJ9'</t>
+          <t>b'eydyYW5kMSc6IDEyOTksICdkb19zd2FwJzogRmFsc2UsICdhbnN3ZXIxJzogJzNCX2NwLTI1MDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnN0JfY3AtMjAwMC5hbnN3ZXInLCAncmFuZDInOiAyMTU3OH0='</t>
         </is>
       </c>
     </row>
@@ -1858,26 +1862,26 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">1) Because beer is inexpensive and voluminous. 
-2) Because it makes sense for a provider of said drinks to not compete for purchase of those drinks. 
-3) &amp;gt;But dont well companies naturally compete for sales that are already there? </t>
+          <t xml:space="preserve">
+The difference is that for beer, there are a lot of distinct flavor profiles that are not replicated by other beers, so you can't just substitute one for the other.  With soda, there is a lot of flavor overlap, so you can just substitute one for the other. 
+This is the same reason why it is not common</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Coke and Pepsi dominate the soft drink market, so it's not cost effective for them to compete on pricing. 
-Beer is a much smaller market, so the breweries can afford to fight over smaller margins.</t>
+          <t>1. Millers Light is a product of the soft drink companies, not an independent one.  
+2. Coke, Pepsi, and 7 up all have similar taste.  Coke Pepsi 7 up.
+3. There is little DIFFERENCE between Coke, Pepsi, and 7 up. "my favorite is the favorite" is a</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>{'rand1': 76146, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 78910}</t>
+          <t>{'rand1': 983, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 93183}</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDc2MTQ2LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNzg5MTB9'</t>
+          <t>b'eydyYW5kMSc6IDk4MywgJ2RvX3N3YXAnOiBUcnVlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzNCX2NwLTI1MDAuYW5zd2VyJywgJ3JhbmQyJzogOTMxODN9'</t>
         </is>
       </c>
     </row>
@@ -1892,25 +1896,24 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. When we say "sofa" we automatically assume it's stationary. 
-2. To a human it challenging sofas looks as "random faces moving in those awkward patterns".
-Suppose you have 10 moving sofas. Then if you observe 10 x 10 x 10 = 1000 faces. If you observe pixel by pixel, logarithmically you wouldn't see a pattern at all.
-</t>
+          <t>1 it's cute, 2 to open the door vadimbredik, 3 I do believe this guy is sick</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The solution is to take the sofa apart.  The problem is that there are many sofas that can't be taken apart, so the problem persists. </t>
+          <t xml:space="preserve">
+&amp;gt; Why is there no solution for the Moving Sofa Problem?
+It's not a problem, it's a paradox.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>{'rand1': 5786, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 90344}</t>
+          <t>{'rand1': 19429, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 37727}</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDU3ODYsICdkb19zd2FwJzogRmFsc2UsICdhbnN3ZXIxJzogJzNCX2NwLTI1MDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnN0JfY3AtMjAwMC5hbnN3ZXInLCAncmFuZDInOiA5MDM0NH0='</t>
+          <t>b'eydyYW5kMSc6IDE5NDI5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMzc3Mjd9'</t>
         </is>
       </c>
     </row>
@@ -1925,27 +1928,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1) if you are not paying any taxes, you should probably figure out if you need to be paying taxes.
-2) there are millions of households in america that pay no income taxes because they get a large chunk of their income in the form of refundable tax credit from the IRS.  This gives them all sorts of nice additional money, and so it is a well known get rich quick scheme to get a job at an IRS office, declare some bogus income,</t>
+          <t xml:space="preserve">1) The earned income credit.  This is a refundable tax credit for low income workers.  You pay no tax, but still receive a federal tax refund.
+2) The child tax credit.  This is a tax credit for families with children.  You pay no tax, but still receive a federal tax refund.
+3) The EITC.  This is a refundable tax credit for low and moderate income workers. </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>47% of people don't pay federal income tax because they don't have any federal income. 
-People who are retired receive social security and medicare, which are both federally funded programs. 
-People who work for the government don't pay federal income tax. 
-People who are unemployed don't pay federal income tax. 
-People who have low income and are not a part of</t>
+          <t>47% in the US: is not exactly accurate. It's 47% not paying enough taxes. 
+The government limits how much they take out of your paycheck. There is a deduction for every paycheck. You pay less or more than that percentage depends on how much you make and how much the Company sweetens your stimulus check with. So since each company rebates the government a certain amount for every worker, a lot of people are getting money back</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>{'rand1': 63518, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 88334}</t>
+          <t>{'rand1': 32188, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 75736}</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDYzNTE4LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogODgzMzR9'</t>
+          <t>b'eydyYW5kMSc6IDMyMTg4LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3NTczNn0='</t>
         </is>
       </c>
     </row>
@@ -1960,23 +1961,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>500 unique users. Either way, I suspect that the army is being overwhelmed. What I suspect is that users see this nesting question and immediately start /u/ev-bakugan</t>
+          <t xml:space="preserve">2 things, 1: the moderators are really good at spotting when people are using bots to upvote. 2: a lot of people in r/thebutton hated the whole thing. </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> On Reddit, a swarm of bots are known as a "hive".  It's a fairly common problem but usually not as bad as what happened in this instance.  This was a well organized effort to create a massive hive that was able to take down a large subreddit.  As a result the moderators of r/thebutton were forced to close it down.
-tl;dr: Swarm of bots overwhelm a sub</t>
+          <t>15 minute banning spree across the top ranks of r/thebutton. The R2P act was also in effect, but whatever. A pyramid of bots was probably the biggest issue.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>{'rand1': 248, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 52126}</t>
+          <t>{'rand1': 78171, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 67392}</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDI0OCwgJ2RvX3N3YXAnOiBGYWxzZSwgJ2Fuc3dlcjEnOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDUyMTI2fQ=='</t>
+          <t>b'eydyYW5kMSc6IDc4MTcxLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA2NzM5Mn0='</t>
         </is>
       </c>
     </row>
@@ -1989,23 +1989,28 @@
           <t>When I plug my nose and blow air really hard, my ears "pop". What is actually happening?</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[LINK]
+I've been told that it's actually the air rushing into the nasal cavity. </t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-[LINK]
-Basically, the Eustachian tubes are a pathway that connects your middle ear to your throat. When you're young, this pathway is very open, but as you age, the Eustachian tubes get narrower. This is why adults have trouble popping their ears, and why children can do it so easily.
-When you blow air through your nose, the</t>
+          <t xml:space="preserve">tinnitus agression = collagen stuff in the ear. When you rupture the ear the fluid builds up &amp; when you poke you ears with pressure, it makes sure of yourselve.
+see ear popping as your brain generates two thoughts at the same time: a high pressure burst in the middle of your ear, and a high pressure spray at the invading air from outside, moving your head to the middle of your body.
+</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>{'rand1': 98876, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 65829}</t>
+          <t>{'rand1': 26923, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 13894}</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDk4ODc2LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNjU4Mjl9'</t>
+          <t>b'eydyYW5kMSc6IDI2OTIzLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAxMzg5NH0='</t>
         </is>
       </c>
     </row>
@@ -2020,26 +2025,28 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-In the aristocracy of ancient civilizations, clapping your hands was the ultimate form of appreciation. It was reserved for the nobility and was a rare act.
-The act of clapping your hands ended up being adopted by ordinary folks, and its constant use is a signal of high regard.
-</t>
+          <t>4000 years ago, the Egyptians used to clap their hands and stamp their feet when happy or approving. 
+The noise they made was said to be a reference to the sound of their hearts. 
+It spread to the rest of the world. 
+So when you clap, you're clapping to your heart. 
+The actual sound of the clap is a reference to the heartbeat.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-[This]([LINK]) is a great video on the evolution of clapping.</t>
+          <t xml:space="preserve">t h e w r o n g o f t h e w o r l d.
+People clap their hands, not because they want others to think they haveiously good taste, but because they feel accomplished for finishing a race in a decent time. 
+The feel recognition endorphins kick in, in addition to the natural physical effects of losing 50-150 lbs of endorphins per week. </t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>{'rand1': 66599, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 40283}</t>
+          <t>{'rand1': 56289, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 73015}</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDY2NTk5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNDAyODN9'</t>
+          <t>b'eydyYW5kMSc6IDU2Mjg5LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3MzAxNX0='</t>
         </is>
       </c>
     </row>
@@ -2054,27 +2061,25 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1) mother and I would play hide and seek outside and your father and I would hide in the corn a-mess..when we heard you coming we'd all (your sister and I) come out and wish it was time to play mother, father, son and I...then we all hit the corn canadaguns..while your sensei stood out there since she thought we were playing hide n seek and could see us yeah we did that...(l</t>
+          <t>1) You need to build up bladder capacity by taking small amounts of fluids during the day or you risk not being able to go when it's really necessary.
+2) Hiding increases the opportunity for fatigue and bodily injury.  So not only will you be desperate to get to and get out of a babyi house, you will be fully exhausted.  That vomiting may be one of your unique physical defenses against predators combined with the scents</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1. You're not used to using your body to hide. 
-2. You're not used to using your body to find. 
-3. You're not used to using your body to run. 
-4. You're not used to using your body to get into places. 
-5. You're not used to using your body to get out of places. 
-6. You'</t>
+          <t>1. You're in a new environment
+2. You're moving around a lot
+3. You're making noise</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>{'rand1': 20730, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 52100}</t>
+          <t>{'rand1': 91929, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 96717}</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDIwNzMwLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNTIxMDB9'</t>
+          <t>b'eydyYW5kMSc6IDkxOTI5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogOTY3MTd9'</t>
         </is>
       </c>
     </row>
@@ -2089,23 +2094,25 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1) Different flowers when replicated into flowers, produce varieties of the same flower, some with smaller and fewer, others with larger and more. This is part of the sexual reproduction method these flowers use (pollination) 
-2) I'm not sure how they all get recognized and go to make honey (i.e. the ones that are used) vs the ones that aren't. I think those that are are the ones producing the most, but this is really just a</t>
+          <t xml:space="preserve">
+It's actually the nectar from the flower that turns into the honey.  The nectar has the flavor of the flower.  So, yes, different flowers have different flavors.  
+If you're interested, [this article]([LINK]) goes into some detail about how the flavor of honey changes as it ages or when it's mixed with other honeys.  </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It's not the flower, it's the nectar.  Honeybees are nectar-gatherers.  They will gather nectar from a variety of flowers, and that variety of nectar is what the bees bring back to the hive.</t>
+          <t xml:space="preserve">100% breed (group of bees that mate and produce more bees of the same species.) Some varieties of flowers also give a distinct flavor to honey, based on the pollen the bee picked up on its way to the flower, and what kind of nectar it found when it arrived. Not all flowers have different nectar, but some have slightly different flavors based on a more different combination of pollen and nectar. 
+</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>{'rand1': 35024, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 35167}</t>
+          <t>{'rand1': 27654, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 59982}</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDM1MDI0LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMzUxNjd9'</t>
+          <t>b'eydyYW5kMSc6IDI3NjU0LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1OTk4Mn0='</t>
         </is>
       </c>
     </row>
@@ -2120,28 +2127,26 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1. I have not seen it happen, but it is possible that the plastic used in the ketchup packets is not made of polystyrene.
-2. The ketchup packets may be made of a material that has a lower surface energy than your tooth enamel.
-3. The ketchup packets may be made of a material that has a lower surface energy than your tooth enamel.
-4.</t>
+          <t xml:space="preserve">
+It's because you're biting more than the plastic. Your teeth are actually biting the plastic and your jaw muscles are pulling the plastic in the opposite direction. 
+It's like trying to bite through a very thick rubber band. 
+The same thing happens when you bite through a straw. </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>t/s was Peukka, and he had the better explanation since you used it. But here is a second take from Lightbender, who has a good hint on what ache is:
-"whats good
-The chemical changes in your hair and teeth are caused by the open tubule systems, which take stress and heat as a product.
-Well, in the cantaloupe situation, your enzyme got activated first</t>
+          <t xml:space="preserve">
+Since you asked using the entire scope of this amazing amazing Supreme Court of America film as an answer, Liam has a point.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>{'rand1': 60353, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 66262}</t>
+          <t>{'rand1': 71159, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 89600}</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDYwMzUzLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA2NjI2Mn0='</t>
+          <t>b'eydyYW5kMSc6IDcxMTU5LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4OTYwMH0='</t>
         </is>
       </c>
     </row>
@@ -2156,25 +2161,25 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1. The AC is converted to DC (or used as DC straight from the wall)
-2. The DC is converted to a lower voltage (~5V)
-3. The lower voltage is boosted up to whatever the laptop requires (usually 19.2V)
-4. Finally, the laptop takes the 19.2V and converts it to the correct voltage for use</t>
+          <t xml:space="preserve">
+[LINK]-inside-of-a-charger-socket/
+</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1. They are from the same company (now owned by Apple) that makes the "Chargerspeaker" for laptops and you can use your charger to charge or listen to music to/from it (depending on the type)</t>
+          <t xml:space="preserve">
+Cables are designed from the outside away from the metal conductors that themself use to carry electric current. These are corrosion magnets which can bypass grounding and allow even popular metals such as aluminum to conduct taking an awful lot more amperage and charging at electron speeds people no longer understand. </t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>{'rand1': 65001, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 34318}</t>
+          <t>{'rand1': 39928, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 71266}</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDY1MDAxLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAzNDMxOH0='</t>
+          <t>b'eydyYW5kMSc6IDM5OTI4LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3MTI2Nn0='</t>
         </is>
       </c>
     </row>
@@ -2189,27 +2194,24 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1. You're young now.
-2. When you're older, you'll be more mature and less shallow.
-3. Also, you'll have a lot more in common with older people.
-It might not be accurate, but it's a reasonable explanation.</t>
+          <t xml:space="preserve">13 months old so ya it's ambiguous but if I had to make a guess it's because you didn't previously find the elderly as interesting. 
+Not anything specific to women, just life in general. When faced with something new you generally desire to learn more about it. And the more the better. </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Personal experience: if there is no more sexual stimulation in a relationship, et voila, the spark dies. 
-When a man and woman are both 30 their sexual relationship will be different than 30 years in and two women because at 30 you have seen a lot more than you did when you were 20 and women will last longer and keep you interested longer, etc.</t>
+          <t xml:space="preserve">1) You're not attracted to old women now because you're young.
+2) You will be attracted to old women when you're old because you're attracted to older women now. </t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>{'rand1': 8089, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 45771}</t>
+          <t>{'rand1': 17701, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 682}</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDgwODksICdkb19zd2FwJzogVHJ1ZSwgJ2Fuc3dlcjEnOiAnN0JfY3AtMjAwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICczQl9jcC0yNTAwLmFuc3dlcicsICdyYW5kMic6IDQ1NzcxfQ=='</t>
+          <t>b'eydyYW5kMSc6IDE3NzAxLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNjgyfQ=='</t>
         </is>
       </c>
     </row>
@@ -2224,26 +2226,28 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1) Because the black boxes are the only actual record of what happened, not the data stream.
-2) Because you need to know what happened, not that a single flight was OK. 
-3) Because everyone knows that the black boxes are the only actual record of what happened, not the data stream.
-Source: I'm a pilot</t>
+          <t xml:space="preserve">1) The information is sent to the ground. 
+2) The information is sent to the ground via a satellite.
+3) The information is sent to the ground via fiber optic cable.
+4) The information is sent to the ground via a modem.
+5) The information is sent to the ground via a cell phone.
+</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1) old tech, i.e., OLD planes. Plane damage is rare.
-2) security. If you are a terrorist you don't want people tripping over broken seats or badly done wiring when looking for a weak point in the electrics. We know that recording the actual black box can't be done without causing a problem with the plane but we can still check that</t>
+          <t xml:space="preserve">1) These boxes record the plane's flight data (speed,...), while recording into them. Wiring is not allowed on planes. 
+2) In the US, the air traffic control relies on this data in emergency cases or crazy crashes when people don't quite know what happened. </t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>{'rand1': 45672, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 30167}</t>
+          <t>{'rand1': 20974, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 29703}</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQ1NjcyLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAzMDE2N30='</t>
+          <t>b'eydyYW5kMSc6IDIwOTc0LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAyOTcwM30='</t>
         </is>
       </c>
     </row>
@@ -2258,25 +2262,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1. Alligators have a single curved tooth on each side of their jaw. Crocodiles have 4-6 teeth on each side of their jaw.
-2. Alligators have a U-shaped snout. Crocodiles have a V-shaped snout.
-3. Alligators have a concave back and a long tail. Crocodiles have a convex back and</t>
+          <t>1. Alligators have a wider range of vision than crocodiles. 
+2. Alligators have a wider mouth and can open it wider. 
+3. Alligators are more aggressive and less selective. 
+4. Alligators are longer and more streamlined. 
+5. Alligators are more aquatic. 
+6. Alligators have</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the alligator does not lay eggs, its reproductive cycle is very different. Crocs lay eggs &amp; can spawn 300 per season &amp; alligators lay eggs &amp; can spawn 72 per season.
-The other big difference is gators live in fresh water &amp; crocs in saltwater</t>
+          <t xml:space="preserve">
+Alligators are a primitive version of a crocodile and share a lot more in common with fish and other reptiles. Crocodiles evolved from members of the turtle order (along with the dinosaurs). Many of the adaptations present in both animal groups are related evolutionary casualties, which means they're shared between them. 
+Don't lump them all together though. </t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>{'rand1': 70152, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 91401}</t>
+          <t>{'rand1': 24125, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 63745}</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDcwMTUyLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA5MTQwMX0='</t>
+          <t>b'eydyYW5kMSc6IDI0MTI1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA2Mzc0NX0='</t>
         </is>
       </c>
     </row>
@@ -2291,23 +2299,24 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">8-track tapes are a thing of the past, and cassette tapes are very much so. The reason is that vinyl records are the highest quality sound reproduction for a physical medium. When you record a song into a cassette tape, you're using the tape's magnetic properties to store the music, which is not a very stable medium. The same is true with </t>
+          <t>1. Vinyl lasts longer making them more practical
+2. Vinyl is better on almost every other technical and aesthetic level than the new digital material equivalents. In particular he sound reproduction of vinyl doesn't colapse as significantly as is the case with both mp3's etc
+3. The physical properties of vinyl are attractive to record companies. They are easy to produce (and upkeep cheap) and to sell as</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8track are a fad.
-TL;DR Cursing is now a fading fad too.</t>
+          <t>8-tracks are not making a resurgence because the music industry does not want to sell 8-tracks.  They are a niche market that most people do not care for.  In contrast, people who listen to vinyl are willing to pay more for it.  This is why it is resurging.  People who do not listen to vinyl are not interested.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>{'rand1': 19629, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 4756}</t>
+          <t>{'rand1': 13945, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 83654}</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDE5NjI5LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0NzU2fQ=='</t>
+          <t>b'eydyYW5kMSc6IDEzOTQ1LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogODM2NTR9'</t>
         </is>
       </c>
     </row>
@@ -2322,24 +2331,28 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1. The other person's nasal passageways are generally larger than yours, which means that they are more likely to pick up the stuff that causes stuffiness.
-2. The other person's nasal passageways are generally smaller than yours, which means that they are more likely to be blocked by the stuff that causes stuffiness.</t>
+          <t xml:space="preserve">30 year old here, so not sure if it's different amongst young people, but to me I always feel generic allergies- especially tree pollen which I'm always getting in April even though I live in the East Coast (definitely a return from the Midwest).
+Also sleep on a hardwood floor. Made me even more stuffy the first night I slept in his flat, but at least I had my own bed at my place.
+</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-People sleep in different ways on average, therefore with different forms, amounts and wavelenghts of nasal/pharyngeal mucous. Some will be filled with gunk all the time, others will be out of the way kinda, and others will just be ravenously clean like giraffes after a carmine hunt.</t>
+          <t>1. You are sleeping in a place where you are not used to the air quality. 
+2. The air quality is poorer than you are used to. 
+3. Your body is trying to defend itself from what it thinks is an infection. 
+4. Your body is trying to defend itself from what it thinks is an infection. 
+5. Your body is trying to defend itself from what</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>{'rand1': 91765, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 8712}</t>
+          <t>{'rand1': 77333, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 1061}</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDkxNzY1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4NzEyfQ=='</t>
+          <t>b'eydyYW5kMSc6IDc3MzMzLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMTA2MX0='</t>
         </is>
       </c>
     </row>
@@ -2354,26 +2367,24 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2.0 GHz isn't a dumb thing that the designers decided to do, it's part of the standard. But really, ghz rating is a measure of the raw power, not a measure of what one can actually do. Theoretically, 2 Ghz will allow the treatment of more data in a shorter amount of time. 
-For example, the CPU of a one year old computer may have a</t>
+          <t>10 bits is pretty powerful. But with so many trinkets on a single board, they can only shine so bright.
+[Processor Galleries: Intel Core i3-3220 3.30GHz]([LINK]/)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.4 GHz is the same speed.  
-What is different is what the 2.4 GHz can do with that speed.
-Let's say CPU A has 300MB of cache and CPU B has 100MB of cache.
-CPU A can have a 2.4 GHz clock and still have 300MB of cache to use while CPU B has to use </t>
+          <t>2.4 GHz is the clock speed of the CPU, nothing else.  If you have a 2.4 Ghz CPU but it has a lower clock speed, it's going to be slower.  If you have a 2.4 Ghz CPU but it has a higher clock speed, it's going to be faster.
+It's all about the clock speed.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>{'rand1': 32322, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 16449}</t>
+          <t>{'rand1': 47671, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 43107}</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDMyMzIyLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMTY0NDl9'</t>
+          <t>b'eydyYW5kMSc6IDQ3NjcxLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNDMxMDd9'</t>
         </is>
       </c>
     </row>
@@ -2388,18 +2399,24 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They do, but you have to work at a university for the rest of your life. </t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t xml:space="preserve">
+[LINK]-university-students-get-paid-for-breakthroughs-discoveries-in-science-archaeology-etc</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6-5 law shields discovery projects, but a lot of the experiments are conducted by the McGill Research Board  which provides funding for graduate students.  Obviously it would be unrealistic to hope for a patent, because it would typically be a simplification of what has already been done and documented.  Thus the motivation for funding theses  students would be to advance research in the field. This means more researches can be made.
+that</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>{'rand1': 14538, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 48108}</t>
+          <t>{'rand1': 40221, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 21106}</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDE0NTM4LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0ODEwOH0='</t>
+          <t>b'eydyYW5kMSc6IDQwMjIxLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAyMTEwNn0='</t>
         </is>
       </c>
     </row>
@@ -2414,32 +2431,26 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">    They want more power to make their currency cheaper or more expensive.
-It's in Russian's economic interests to pin Ukraine down to their economy, helping the currency work cheaply for themselves. 
-As a direct invasion takes Ukraine further away from China and the West...essential if they want to connect Russia and China up. 
-</t>
+          <t>tl;dr: Russia's military decision was predictable, but Russia's political objectives were not. 
+The Crimea is strategically important. It sits right next to Ukraine, and only about one fourth of Ukraine is occupied by the Russian military right now. It also overlooks several ports, and if Russia had at least 110-100,000 troops in that territory they could control 2/3 of Ukraine. More importantly, Crimea is very important</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-* An excuse to take over more of Ukraine.
-* An excuse to start killing ethnic Russians in Ukraine.
-* An excuse to start killing ethnic Ukrainians in Russia.
-* An excuse to start killing ethnic Tartars in the Crimea.
-* An excuse to start killing ethnic Jews in the Crimea.
-* An excuse to start killing ethnic Gypsies in the Crimea.
-* An excuse to</t>
+          <t>1) Crimea has a large Russian speaking population
+2) Crimea has a large Black Sea naval base
+3) Crimea has a large amount of natural resources
+4) Crimea has a large tourism industry that would benefit from Russian tourists</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>{'rand1': 85695, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 93817}</t>
+          <t>{'rand1': 76247, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 27591}</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDg1Njk1LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogOTM4MTd9'</t>
+          <t>b'eydyYW5kMSc6IDc2MjQ3LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMjc1OTF9'</t>
         </is>
       </c>
     </row>
@@ -2454,25 +2465,28 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">1) The Civil Rights Act of 1964.  This law prohibited discrimination on the basis of race, color, religion, sex or national origin.  The Republicans did not like this.  It also created the Equal Employment Opportunity Commission.  So Republicans opposed the law.  (Not all Republicans, but enough to make a difference.)
-2) The Voting Rights Act of </t>
+          <t>12 years after Reconstruction ended and for half century before the global Depression NEVER EVACUATED after returning to power the majorities embraced GOP proposals to dissolve the Democratic party through party purge. 
+Ku Klux Klan linked voting territory was established,  sodomy laws in every state was passed,  the notorious Jim Crow laws allowed no white people to be in the same room with blacks, and known rapists localized in</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1860, 1870, 1880, 1912, 1932
-That was a cycle. Democrats grew popular comparatively stagnant.  The cycle then flipped for another 120 years. Finally Republicans began a cycle of losing elections and then painting their opponents as limtited growth socialists.
-This changed in 2016 when the college educated, economically</t>
+          <t>1) Republican party was not abolishing slavery.
+2) Republican Party was not against abolition of slavery, they were against the abolition of slavery.
+3) Their position was that slavery was a state issue and should be left to the states.
+4) The Republican Party was formed with the support of abolitionists.
+5) The Republican Party was the party of Lincoln.
+6)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>{'rand1': 52649, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 57611}</t>
+          <t>{'rand1': 15004, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 19548}</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDUyNjQ5LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1NzYxMX0='</t>
+          <t>b'eydyYW5kMSc6IDE1MDA0LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMTk1NDh9'</t>
         </is>
       </c>
     </row>
@@ -2487,26 +2501,26 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>tired... dumb if you recalled that in your sleep
-Your alarm is ringing, time to get up. 
-New day, school, work, or whatever.</t>
+          <t xml:space="preserve">1) Evolution - when you sleep you are effectively doing nothing, when you are awake you tend to be more active by default
+2) Lack of immediate reward
+3) Being awake results in better memory and memory takes longer to process
+These four things combined to delay need for a life strategy </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-It's the same thing that happens when you go to sleep. You start thinking about all the things you need to do. Then, you fall asleep and it's gone.
-It's just the way our brains work.</t>
+          <t>1) Your body produces more of a chemical called Cortisol while you sleep. Cortisol is what makes you feel tired, and also makes you do things like eat, move, and think. 
+2) When you wake up, your body naturally produces less Cortisol, and you no longer feel tired. This is the reason why you</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>{'rand1': 52069, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 66746}</t>
+          <t>{'rand1': 68596, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 86837}</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDUyMDY5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNjY3NDZ9'</t>
+          <t>b'eydyYW5kMSc6IDY4NTk2LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogODY4Mzd9'</t>
         </is>
       </c>
     </row>
@@ -2521,23 +2535,26 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1. Your throat is swollen because you have a cold or something.
-2. The liquid is too hot, too cold or too viscous.</t>
+          <t xml:space="preserve">
+First, my Digestive Physiology book, says that that when something solid remains in your throat for long durations, it can make you feel tired and dizzy.
+Secondly, you might be consuming large quantities of coffee/black tea, which are strong stimulants that make you thirsty. If you continue consuming that much you will become dehydrated. This, in turn, causes</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1) Not possible to unfreeze your throat 2) Possibly to simple throat burn from acidic drinks, Caffeine, and/or alcohol 3) Possibly other factors</t>
+          <t>2 things can cause this:
+1. You are choking on something.
+2. You are having an allergic reaction to something in the drink.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>{'rand1': 15005, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 10917}</t>
+          <t>{'rand1': 62777, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 84665}</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDE1MDA1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAxMDkxN30='</t>
+          <t>b'eydyYW5kMSc6IDYyNzc3LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogODQ2NjV9'</t>
         </is>
       </c>
     </row>
@@ -2552,25 +2569,24 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2 reasons to be behind you: Sight + Dreamer.
-When you sense someone being behind you, one of those reasons is likely on the move. You can either spot them up and see that they are walking past you (or very near you) or detect that they are moving up and down the stairs/stairs from a shadow. If one of these senses are triggered, I.e. you see someone moving but you are already awake, your</t>
+          <t xml:space="preserve">
+[This]([LINK]) is a good article about it.
+Basically your body is a big web of nerves and muscles. When someone taps you on the shoulder, the nerves and muscles in your shoulder vibrate and send a signal to your brain.  This is what you feel.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-[LINK]-546-1663-3709-1001.html
-The sense is called [parietal sense]([LINK]).  It is a sense that allows you to sense things near your body.  It is different than the other senses because it is not a passive sense.  The brain actively processes the information to make you aware of it.  It is mostly</t>
+          <t>1954 Television interview with Fred Allen talks about how he feels when someone is standing behind him. Perhaps that's the famous clip.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>{'rand1': 74316, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 34718}</t>
+          <t>{'rand1': 74168, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 48479}</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDc0MzE2LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMzQ3MTh9'</t>
+          <t>b'eydyYW5kMSc6IDc0MTY4LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0ODQ3OX0='</t>
         </is>
       </c>
     </row>
@@ -2585,27 +2601,24 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1. People with accents are more interesting than people who don't have accents.
-2. People with accents are more charismatic than people without accents.
-3. People with accents are more likely to have a sense of humor than people without accents.
-4. People with accents are more likely to be attractive than people without accents.</t>
+          <t>1. You're not going to be 100% deaf to accent differences. 
+2. You're not going to mishear every major vital difference between your own accent and other major accents. So you're more likely to see a person as more appealing because of the perception that they are more amenable to you understanding them.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-The main reason is due to one common link in all of these different accents I guess and that's 'humor'. 
-Saying "I woz robbed!" chuckling in response, hopping in a car full of gravel and throwing rocks at someone with a "Go away" tic in our vowels... something that's perfectly natural for us having grown up saying (they don't do it in many other accents) and yet extremely strange to</t>
+          <t>1. The person who is speaking is more charming than the person who is speaking, but you have a bias towards charming people.
+2. You're attracted to the person's voice because you are attracted to that person.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>{'rand1': 41062, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 51393}</t>
+          <t>{'rand1': 5531, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 8989}</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQxMDYyLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1MTM5M30='</t>
+          <t>b'eydyYW5kMSc6IDU1MzEsICdkb19zd2FwJzogRmFsc2UsICdhbnN3ZXIxJzogJzNCX2NwLTI1MDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnN0JfY3AtMjAwMC5hbnN3ZXInLCAncmFuZDInOiA4OTg5fQ=='</t>
         </is>
       </c>
     </row>
@@ -2620,24 +2633,25 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>3 light-years really isn't that far. Our current generation of vehicles is rockets trimed down to a barely liveable size.</t>
+          <t xml:space="preserve">1. We're not going to be exploring space in spaceships. 
+2. We're not going to be going anywhere near the debris. It's going to be inside the station. 
+3. We're not going to be going anywhere near the debris. </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1. The ISS is in Earth orbit, so it is moving at a lot slower than we are. It is also in a very low orbit, so it is moving very fast.
-2. The paint fleck is traveling at a low speed, and is small. The ISS is slow, but is huge.
-3. The ISS is</t>
+          <t xml:space="preserve">1. NASA doesnt want the best available booster to blow up their wildly expensive toys. 2. Boosters dont SMS 3.mph. pretty sure the ISS doesnt move 140mph on its a t x 2 pier. 
+People actually need to be worried about the objects that got into it. </t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>{'rand1': 80408, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 58820}</t>
+          <t>{'rand1': 68188, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 34771}</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDgwNDA4LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNTg4MjB9'</t>
+          <t>b'eydyYW5kMSc6IDY4MTg4LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAzNDc3MX0='</t>
         </is>
       </c>
     </row>
@@ -2652,26 +2666,28 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-[source]
-If my nose is stuffy when I leave the restaurant, I know that I didn't taste truly bad food. If I had visibly tasted it, I wouldn't have just sat there.</t>
+          <t>1. Make sure you wash right after eating the pyramid (spiciness) because you will also be smelling it (pyramid). 
+2. I think something about loads of amino acids builds up in your system  and hinders your sinus chamber from draining 
+3. During pregnancy your saliva glands still works some but I don't know what causes it, come to think about it I get this everytime I eat some mexican food I'm allergic</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1. You make a lot of mucus when you eat spicy food. 
-2. You feel the spice going down your throat.
-3. Those spicy food particles are not very big, so they are easily pushed through the mucus, which is not very thick, and into your nasal cavity, where they can make you sneeze.</t>
+          <t>1. It's a reaction to the heat.
+2. It's a reaction to the spiciness.
+3. You're blowing your nose because you're trying to cool down the heat.
+4. You're blowing your nose because you're trying to remove the spiciness.
+It's not specific to spicy food. If you eat something hot, you'll get the same reaction.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>{'rand1': 76194, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 73270}</t>
+          <t>{'rand1': 83454, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 87112}</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDc2MTk0LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNzMyNzB9'</t>
+          <t>b'eydyYW5kMSc6IDgzNDU0LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogODcxMTJ9'</t>
         </is>
       </c>
     </row>
@@ -2686,27 +2702,31 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-In simpler words, figuring out why that mate was so orgasmic that night.</t>
+          <t>1: Dream? (see linked page 1&amp;2, eg as a person who had DID I was sure I had  addressed all aspects of that before)
+2: contraction of the pharynx near entry 
+3: ~ their brains.
+Nothing concrete or factual, but there are several physiological explanations. This is mostly a guess, but I best guess would be local frill initiation, either uterine or vaginal, or</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2 things:
-1. You're getting closer to orgasm
-2. Your partner is doing something you like
-The second is the more important thing and is in your control.
-It's the same for both genders.</t>
+          <t>1.  Your body is designed to orgasm during sex. 
+2.  Your body is designed to orgasm during sex. 
+3.  Your body is designed to orgasm during sex. 
+4.  Your body is designed to orgasm during sex. 
+5.  Your body is designed to orgasm during sex. 
+6.  Your body is designed to orgasm during sex. 
+7.  Your body is designed to orgasm during</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>{'rand1': 92740, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 10739}</t>
+          <t>{'rand1': 55014, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 42165}</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDkyNzQwLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMTA3Mzl9'</t>
+          <t>b'eydyYW5kMSc6IDU1MDE0LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNDIxNjV9'</t>
         </is>
       </c>
     </row>
@@ -2721,22 +2741,30 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Modern humans have evolved to have narrow faces, maybe to focus light to the eyes better and see in lower light. However, populations that have been around for thousands of years (e.g., the Neanderthal) have broader taken to increase efficiency in that area of the eye. If you look at most societies in modern days (central and eastern countries, eg) you can see the concensus on how to shape the face based on your region and metro status.</t>
+          <t>We want to look at other genders. Also humans are social animals, our tendency is to look for members of the same sexual identity.
+However there is, I believe, a learned behavior that comes into touchness the matter of race: the assumption that toughness is something one can pass down genetically (corroborate this by considering how the creation of a "self-defense" white)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>99.9% of the time, no.  The main purpose of evolution is to help us survive, not to make us look good.  The different features between races are due to mutations and other factors.  If a mutation is beneficial, it will be passed down to future generations.  Some features will be beneficial in specific environments, but not in others.</t>
+          <t>1. No, there is not an evolutionary purpose.
+2. Yes, there is an evolutionary purpose.
+3. Yes, there is an evolutionary purpose.
+4. No, there is not an evolutionary purpose.
+5. No, there is not an evolutionary purpose.
+6. No, there is not an evolutionary purpose.
+7. No, there is not an evolutionary purpose.
+8. Yes,</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>{'rand1': 79999, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 97721}</t>
+          <t>{'rand1': 91053, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 14335}</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDc5OTk5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogOTc3MjF9'</t>
+          <t>b'eydyYW5kMSc6IDkxMDUzLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMTQzMzV9'</t>
         </is>
       </c>
     </row>
@@ -2751,27 +2779,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-The images in that painting are available everywhere - in daguerreotypes, lithographs and other less-transmitted forms. So you can even use the image from an 1859 print on your iphone (or even sell/reproduce on your iphone). 
-More complex art pieces however, because they are based on such a simple and obvious composition (strings for lasers</t>
+          <t>1. The image itself, meaning the original artwork.   
+2. Prior Art makes it illegal to reproduce the image commercially, which is defined as reselling the original. A truly nonprofit project would not have prior art against them, as they would not be selling the image in the first place.
+Source: I'm a librarian for a scholarly public library.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-[LINK]-of-public-domain-art-prices.html
-[LINK]-public-domain-images-for-sale.html
-The first one is a great article about the prices, and the second one is a gallery with a lot of public domain images.</t>
+          <t xml:space="preserve">1. It's not a reproduction. 
+2. The copyright on the original image belongs to the person who owns it. 
+3. The copyright on a reproduction of the image is the person who made the reproduction. 
+The copy of the image on your wall is not the original. </t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>{'rand1': 43948, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 40473}</t>
+          <t>{'rand1': 67751, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 6961}</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQzOTQ4LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNDA0NzN9'</t>
+          <t>b'eydyYW5kMSc6IDY3NzUxLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNjk2MX0='</t>
         </is>
       </c>
     </row>
@@ -2786,29 +2814,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-&amp;gt; Why aren't football coaches expected to wear suits like other professional sport coaches?
-Because the NFL is a professional league, and they wear suits.
-The NCAA is not a professional league, and coaches wear sweatshirts.
-The NFL is a professional league, and they wear suits.
-The CFL is not a professional league, and coaches wear sweatsh</t>
+          <t xml:space="preserve">1) They dress up just as much as other coaches, they don't have to do a full suit/white shirt;
+2) It is a final risk. I am absolutely sure more coaches than just Jim Harbaugh has had an outfit completely destroyed during the hectic and sometimes crazy atmosphere of a game. I saw some pictures of Vince Lombardi and he was a dude in suit even in the elbowing my super bowl victory and his feet caught on fire. </t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1) coaches like to show their athleticism: watching them coach a game-day is pretty exciting. Seeing them in the locker room is pretty exciting. They dress the part to get in the hype.
-2) they are responsible for past and present players, and they are part of their community.  They will likely be hired by another youth league or even parents looking for assistance coaching their own kids.
-3) not like "Coach calls it like he sees it"</t>
+          <t>1. They're not paid nearly as well as other coaches.
+2. They're not expected to have any business acumen.
+3. They're not expected to be as well-spoken as other coaches.
+4. They don't have to do nearly as much media.
+5. They're not expected to be nearly as professional.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>{'rand1': 39989, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 85989}</t>
+          <t>{'rand1': 74695, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 81198}</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDM5OTg5LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4NTk4OX0='</t>
+          <t>b'eydyYW5kMSc6IDc0Njk1LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogODExOTh9'</t>
         </is>
       </c>
     </row>
@@ -2821,21 +2847,29 @@
           <t>If trees are technically “hibernating” during winter, how are they continuing to turn our CO2 into oxygen?</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+http://www.youtube.com/watch?v=kJG06PfHRQs&amp;amp;feature=youtu.be
+trees are really **good** at photosynthesis. They take carbon dioxide over time and incubate in orange vests to fuel themselves for the winter. when you pass by, they turn all that chemical carbon into oxygen. it don't really get</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They don’t.  When you breath in oxygen, the oxygen is bonded to your hemoglobin, and the hemoglobin is in your blood, which is pumped around by your heart.  So as long as your heart is pumping, you’ll get oxygen.
-Trees don’t do that.  They have a different kind of cell that carries their</t>
+          <t xml:space="preserve">
+&amp;gt; If trees are technically “hibernating” during winter, how are they continuing to turn our CO2 into oxygen?
+They aren't hibernating, they are dormant. They are not producing leaves, but they are still alive, and are still removing CO2 from the air. 
+Also, it's a myth that trees are the main source of oxygen</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>{'rand1': 66540, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 28768}</t>
+          <t>{'rand1': 52903, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 64715}</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDY2NTQwLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMjg3Njh9'</t>
+          <t>b'eydyYW5kMSc6IDUyOTAzLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNjQ3MTV9'</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2884,24 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1. Turkey has long had an interest in denying the genocide, it's a nationalist thing. 2. Turkey has long had an interest in maintaining good relations with the United States, and the US has a long history of looking the other way on genocide. 3. Turkey has a large and powerful lobby in the US, and the US has a long history of looking the other way on genocide.</t>
+          <t xml:space="preserve">
+The international etiquette of genocide recognition is less strict than most people expect. Genocides need happy endings, and they can't very well be 30+ years behind when it comes to recognition. 
+Historically, Turkey has taken the line that many problems in their relationships with the Armenians are simply a bad reflection on previous leaders, not their responsibility to acknowledge, and that serious discussion of this issue</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> like to actually call it a genocide
-https://forums.straordinario.com/META1988-subject_H104.asp
-They went through a lot, but the deaths were estimated to be about 1/3 of all casualities during WW1 
-They probably say genocide because it's a word that carries alot of weight but there's hardly any proof the </t>
+          <t>1) Turkey is a secular state. 2) Turkey has a very important relationship with the US 3) Turkey has a long history of having Jews in their country and have a very strong Jewish population today. 4) Turkey is a huge country and does not have a large Armenian population. 5) Turkey is a huge country and does not have a large Turkish population. 6) Turkey has a strong economy and military, which is a</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>{'rand1': 90683, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 37988}</t>
+          <t>{'rand1': 85870, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 88209}</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDkwNjgzLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAzNzk4OH0='</t>
+          <t>b'eydyYW5kMSc6IDg1ODcwLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogODgyMDl9'</t>
         </is>
       </c>
     </row>
@@ -2883,26 +2916,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1. Limos are more expensive.
-2. You're paying for the service of the driver.
-It's the same reason why you can't drink alcohol in an airplane, but you can in a limo.</t>
+          <t>1. You are not allowed to drink in a car. 
+2. Alcohol is the most dangerous drug, so it is illegal to operate any kind of vehicle under the influence. 
+3. A limo is a motor vehicle, so the same rules apply. 
+4. The difference is that a limo is a "passenger" vehicle, so the owner can drink what they want. 
+5. The driver is responsible for the</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-You can drink in any moving transportation. Trapani Argentina had to limit drink to essentuially no alcohol. Essentially buford prison had a great drinking gantlet to try to tip the scales
-Of course car is not traveling any control were stretchers or tools will be used so note it is still still smashing into your head at decent speeds so best practice is to leave it unless you cant drink on your feet then just not climb in</t>
+          <t>1. You are more secure as a passenger. Limousines are designed to protect you against theft, such that there is no easy place to place a drink to hide it from potential thieves. 
+2. There are laws in many states which forbid alcohol being consumed by the driver or passengers until they pass a road side sobriety test. Limousines are designed to not disturb other passengers on it's interior, therefore making it difficult for law enforcement to see</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>{'rand1': 63561, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 25591}</t>
+          <t>{'rand1': 15882, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 97382}</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDYzNTYxLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAyNTU5MX0='</t>
+          <t>b'eydyYW5kMSc6IDE1ODgyLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA5NzM4Mn0='</t>
         </is>
       </c>
     </row>
@@ -2917,27 +2951,23 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1) Superglue dries faster than water.
-2) I believe the answer is that superglue molecules are smaller, and capillary action is slower.
-3) Superglue dries fast enough that it ends up below the water level, and pulling up an old tube is more of a pain in the tush.
-Sorry for the mix of minute details. But these are two reasons that the product does not adhere to most other body parts or surfaces. And</t>
+          <t>toys
+[LINK]-super-glue-with-game</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1) There is a bit of air trapped in the bottle.
-2) The glue has a sticky end and a tacky end. The tacky end sticks to you, the sticky end sticks to the glue. The tacky end has to stick to the glue to transfer the tacky end to the glue.
-In other words, the glue is sticking to itself.</t>
+          <t xml:space="preserve"> Because the superglue is a liquid.  The glue on the inside is a solid.  When you apply the glue to the outside of the bottle, it mixes with the liquid inside and turns into a liquid.  But the glue in the bottle is already a solid.  </t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>{'rand1': 7242, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 64518}</t>
+          <t>{'rand1': 61235, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 65257}</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDcyNDIsICdkb19zd2FwJzogRmFsc2UsICdhbnN3ZXIxJzogJzNCX2NwLTI1MDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnN0JfY3AtMjAwMC5hbnN3ZXInLCAncmFuZDInOiA2NDUxOH0='</t>
+          <t>b'eydyYW5kMSc6IDYxMjM1LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNjUyNTd9'</t>
         </is>
       </c>
     </row>
@@ -2952,28 +2982,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1. you deposit a negative charge on silver oxide substances. ohms law will ensure that you pull excess + to ground.  
-2. Most Miners in the US are using batteries up around 95%-99.9% capacity for cheap. Hence your camera battery would probably have less than 1000 mAh capacity and less than 10% capacity.  
-Adding an unknown amount of silver, just a few cells in</t>
+          <t xml:space="preserve">
+Batteries were invented for being easily disposed of as a possible hazard to humans, so the batteries themselves don't actually need to be completely "usable" as they are too expensive to throw out.  
+When a battery is an obvious failure - like it simply refuses to do its job and doesn't even hold a tiny spark of charge - it has a higher resistance to the electrochemistry that is actually conducting the charge and therefore produces</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">1) They're not dead, they're just stuck.
-2) You've given them a gentle shake and they've come unstuck.
-3) The one you flipped around was actually the dead battery, and you've just given the other one a little boost of power.
-4) The one you flipped around was actually the dead battery, but the charge just came back.
-</t>
+          <t xml:space="preserve">1. you got a short in it and the battery is still working, just shorted out
+2. you got a loose connection in the battery, which shorted out
+The battery is still working, but there is a short in it. 
+The battery is still working, but there is a loose connection in the battery. </t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>{'rand1': 64340, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 31960}</t>
+          <t>{'rand1': 73670, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 17494}</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDY0MzQwLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMzE5NjB9'</t>
+          <t>b'eydyYW5kMSc6IDczNjcwLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMTc0OTR9'</t>
         </is>
       </c>
     </row>
@@ -2988,22 +3017,26 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>&amp;gt; I may know what crack is, but I've never heard of amphetamine.</t>
+          <t>tobacco is not a drug, it's a plant, a weed.
+There is a different schedule in different countries.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. It is not scientifically proven that they cause cancer. 2. They have medicinal uses and are not addictive. 3. There's money involved. </t>
+          <t xml:space="preserve">
+For starters, it's not "scientifically proven" to cause death.
+There's a lot of evidence to suggest that smoking causes cancer, but there's no way to prove that smoking causes cancer.
+There's a lot of evidence to suggest that smoking is bad for you, but it's not</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>{'rand1': 73245, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 50013}</t>
+          <t>{'rand1': 11482, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 3018}</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDczMjQ1LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNTAwMTN9'</t>
+          <t>b'eydyYW5kMSc6IDExNDgyLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMzAxOH0='</t>
         </is>
       </c>
     </row>
@@ -3018,25 +3051,28 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1. Chinese martial arts style don't get assimilated as Westerners expanded onto the East (ie: Karate would be recognised as Chinese, but it came from Okinawa &amp; Japanese); even its name is Chinese.
-2. Many Chinese military personal didn't want their techniques restricted by access to their practices, so they chose forms they could practice with complete anonymity</t>
+          <t>1) The world was a lot smaller in the past.
+2) Western countries only had limited access to Asian countries.
+3) Western countries are a lot bigger than Asian countries.
+4) The Asian countries are closer to each other, so they had more opportunities to interact.
+5) The Asian countries were more interested in martial arts.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1) The history. Western martial arts have only been around for about 250 years.  Asian martial arts have been around for thousands of years.
-2) The terrain.  Modern western countries are mostly flat, but in Asia the terrain is more varied, and this affected the development of martial arts.
-3) The climate.  In Western countries</t>
+          <t>2 reasons (still miss a few though):
+1. Martial arts are cultural anachronisms. Tibetan cotton-monk kung fu has no older origin. 
+2. Historical anachronism - they are not strictly practical. If you get attacked by, say, bandits and you don't have feathers on you, you can't fly,</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>{'rand1': 29908, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 22870}</t>
+          <t>{'rand1': 49396, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 76796}</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDI5OTA4LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMjI4NzB9'</t>
+          <t>b'eydyYW5kMSc6IDQ5Mzk2LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3Njc5Nn0='</t>
         </is>
       </c>
     </row>
@@ -3051,29 +3087,26 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1) Your throat is dry
-2) You're not used to talking or are tired
-3) You're not as relaxed as you are when you're sleeping</t>
+          <t>1- Because deep within the outer part of the tissues called vocal cords, blood vessels attach.
+2- The blood vessels are moving and the vocal cord tissue is starting to stretch and stretch will give that raspy feel. 
+But if your going to say my voice when I wake up vesiculosa sound like shit, then you got shit for a voice.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3 different explanations :
-1) As :) notes says, the voice box hits a new vibrato phase when you have a cold, or are sick, or if you place your hand on it. 
-2) The vibrations are actually higher. 
-They will be closer to what "normal" frequencies sound like, than when you're cold. 
-3) You just can't hear it louder. 
-Your brain gets used to the crispness of your</t>
+          <t>1) Your throat is drier when you wake up.
+2) You're probably still a bit sleepy.
+Those two things make your voice sound raspy.</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>{'rand1': 20363, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 32137}</t>
+          <t>{'rand1': 73119, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 20705}</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDIwMzYzLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAzMjEzN30='</t>
+          <t>b'eydyYW5kMSc6IDczMTE5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMjA3MDV9'</t>
         </is>
       </c>
     </row>
@@ -3088,25 +3121,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">&amp;gt; to make a baby think is translation.  That is, imagine if we could somehow take the sounds of another language and tune it to identify the differences at birth?  That would be the language that they think in, at least for a time.  But that's the basis of how people develop in languages, so it's more of a "why yes and magic do exist" than a "see actual thing."  </t>
+          <t xml:space="preserve">
+[LINK]-language
+</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[LINK]-the-brain-works-when-you-can-hear
-I believe that in many cases, there are no thoughts in the deaf person's mind at all.
-But, in other cases, I believe they think in sign language. </t>
+ Usually, they will slowly associate patterns in speech and vocalisation with speech sounds. This is fairly easy to learn.  Two of the most common are American/Cantonese/Japenese and mid-Eastern (Semitic).  
+Most serious languages (very complicated and varied) are either hopeless to learn "natively" or impossible, no matter how much effort you put into it.  
+edit: tonight voted hot</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>{'rand1': 39320, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 363}</t>
+          <t>{'rand1': 48283, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 40253}</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDM5MzIwLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMzYzfQ=='</t>
+          <t>b'eydyYW5kMSc6IDQ4MjgzLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0MDI1M30='</t>
         </is>
       </c>
     </row>
@@ -3121,27 +3156,28 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1. The wood is solid, they are not hollow
-2. The wood is covered in a coating that prevents it from being marred by the ball</t>
+          <t>1. They are not made of glass, they are made of wood, which is much harder than glass.
+2. They are made to withstand the impact of bowling balls.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 criteria-
-*They have hundreds of feet of HT Plastic on them.
-*They have very dense felty coverings over them.
-*They have extremely strong fiber structures that break down &amp; hold considerably. 
-</t>
+          <t>1 It's laminated glass, that's what I heard.  
+[LINK]
+  -  Source: graphite weilding it before the pins were introduce.
+Edit:  The above already answered the *why* question. How is the surface resistant to all of the nastiness?  How about utilizing it per complex lanes.  
+For those not already familar with the sport:  
+Lanes are</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>{'rand1': 22933, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 86933}</t>
+          <t>{'rand1': 44385, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 44653}</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDIyOTMzLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4NjkzM30='</t>
+          <t>b'eydyYW5kMSc6IDQ0Mzg1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0NDY1M30='</t>
         </is>
       </c>
     </row>
@@ -3156,33 +3192,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>took me awhile to find this:
-[LINK]</t>
+          <t>1. Japan is a very homogeneous country. Meaning that there is a lot of inbreeding. So, sex is not as exciting. 
+2. Japan has a very low birth rate. 
+3. Japan has a very high suicide rate. 
+4. Japan has one of the lowest life expectancies in the world. 
+5. Japan has the highest number of people who are obese. 
+6. Japan</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1. [LINK]-1080p.mp4
-2. [LINK]
-3. [LINK]
-4. [LINK]
-5. [LINK]
-6. [LINK]
-7. [LINK]
-8. [LINK]
-9. [LINK]
-10. [LINK]
-1</t>
+          <t>15-20 minute anuses.</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>{'rand1': 59731, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 63894}</t>
+          <t>{'rand1': 58000, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 34818}</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDU5NzMxLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNjM4OTR9'</t>
+          <t>b'eydyYW5kMSc6IDU4MDAwLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAzNDgxOH0='</t>
         </is>
       </c>
     </row>
@@ -3197,22 +3227,30 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1. They are a nicotine delivery system. 2. Oh god no. 3. Nope. 4. Nope, unless you are an idiot. 5. Yes, but it's not 100% safe. 6. Nope. 7. Nope. 8. Nope. 9. Nope. 10. Nope. 11. Nope. 12. Nope.</t>
+          <t>1) They are inhaled, they don't burn.
+2) They are a source of nicotine, but no tar.
+3) They are less addictive than regular cigarettes.
+4) They are less harmful than regular cigarettes.
+5) They are not proven to be less harmful than regular cigarettes.
+6) They are not proven to be less addictive than</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>heres another thought: Why are they controversial because they 'keep kids from smoking', but not because they offer people who aren't allowed to smoke all of the chemicals audiences will be exposed to by smoking because they're uncomfortable with smoke?</t>
+          <t>100g of blubbery lungs
+1000g of cylinders
+3,000,000g of tobacco
+And in the end it just tastes right</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>{'rand1': 16635, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 82885}</t>
+          <t>{'rand1': 39825, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 70433}</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDE2NjM1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4Mjg4NX0='</t>
+          <t>b'eydyYW5kMSc6IDM5ODI1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3MDQzM30='</t>
         </is>
       </c>
     </row>
@@ -3227,25 +3265,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1. It's not legal for the same reason alcohol is not legal. Both are drugs that can be abused, and both can be addictive. 
-2. There are negative consequences to smoking pot, but not as many as there are to smoking cigarettes. 
-[LINK]-Reasons-Why-the-US-Government-Banned-Marijuana.html</t>
+          <t xml:space="preserve">
+[LINK]-CARD/ Dungeons_and_dragons-HARMFUL-TO-MENTALLY_INFECTED-(based-on-facts).jpg
+With great power comes great responsibility.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2000 years ago it was legal to do such a thing in Rome.
-But.. The Roman Empire collapsed because of it. Maybe it did that to its own citizens.</t>
+          <t>1) It was illegal because it was classified as a narcotic, like heroin and cocaine.
+2) There are no negative health consequences to smoking pot.
+3) The problem is that it can make you very lazy.  You can get used to the high and not get anything done.
+4) When it was illegal, it was a good excuse to lock up pot smokers and put them</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>{'rand1': 12288, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 54564}</t>
+          <t>{'rand1': 35995, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 28786}</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDEyMjg4LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1NDU2NH0='</t>
+          <t>b'eydyYW5kMSc6IDM1OTk1LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMjg3ODZ9'</t>
         </is>
       </c>
     </row>
@@ -3260,25 +3300,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1%-2% is a lot. 
-I've read that the average age for testosterone to start decreasing is at about 30. 
-[LINK]</t>
+          <t xml:space="preserve">1. It doesn't happen to all men.
+2. The hair does not grow because of the loss of testosterone, but because of the loss of DHT. DHT is a metabolite of testosterone, and it is the DHT that causes hair to grow. Loss of DHT causes hair to fall out.
+</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1% decrease is probably more than what you mean.  There's also some slow hair loss as well as genetic predispositions, you may need medical attention.  
-A good part of the answer is that hormones that stimulate hair growth happen to start decreasing in men around the same time that being less hairy seems to start decreasing: puberty and adolesc</t>
+          <t xml:space="preserve">
+Yes but the top layer is shed.
+Basically you have a bunch of peach fuzz which eventually peels off. 
+The reason we do not notice the second layers is their color is black, which interferes with light processing.</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>{'rand1': 61580, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 95000}</t>
+          <t>{'rand1': 81881, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 54590}</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDYxNTgwLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA5NTAwMH0='</t>
+          <t>b'eydyYW5kMSc6IDgxODgxLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1NDU5MH0='</t>
         </is>
       </c>
     </row>
@@ -3293,21 +3335,25 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1. Some animals have a very high tolerance for toxins. 
-2. Some animals can digest almost anything. 
-3. Some animals can excrete waste products. 
-Humans evolved over time to be less tolerant of toxins, less capable of digesting anything, and less capable of excreting waste products.</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t xml:space="preserve">
+Humans evolved to drink water that was clean enough to drink, but not so clean that it didn't contain enough nutrients.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2 million years ago kind of problem solving in a harsh environment would have meant survival of the 
+strongest.
+in fact edit: polluted water doesn't kill you as quickly, it does cause a huge PH change in the body.  Excrement is acid and the change in the PH creates a lot of respiratory issues.</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>{'rand1': 3366, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 19779}</t>
+          <t>{'rand1': 4484, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 65189}</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDMzNjYsICdkb19zd2FwJzogVHJ1ZSwgJ2Fuc3dlcjEnOiAnN0JfY3AtMjAwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICczQl9jcC0yNTAwLmFuc3dlcicsICdyYW5kMic6IDE5Nzc5fQ=='</t>
+          <t>b'eydyYW5kMSc6IDQ0ODQsICdkb19zd2FwJzogVHJ1ZSwgJ2Fuc3dlcjEnOiAnN0JfY3AtMjAwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICczQl9jcC0yNTAwLmFuc3dlcicsICdyYW5kMic6IDY1MTg5fQ=='</t>
         </is>
       </c>
     </row>
@@ -3322,27 +3368,24 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1) the device has a sumbitted error, means it must do something to alert in case of a problem (let's say it's music, play until its dead silence, not sure what the norm is here)
-2) in case no one survived, the media (the little bits like music etc) are still there and there is a backup (hopefully)</t>
+          <t xml:space="preserve">
+[LINK]-Englisch/watch/- footage_22202969_900.html</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-The answer is that there are two types of audio streams.
-First, there is the stream that your computer is using to play the sound.
-This stream doesn't stop when the program crashes.  It keeps on playing, even if the program doesn't.  This is one of the reasons that you can't easily mute yourself on Skype.
-The second type of audio stream is the stream that the game is using to play the sound.  This one stops when</t>
+          <t xml:space="preserve"> The sound design is controlled by the operating system.  The OS is not crashing.  
+There are many things that can cause a crash, and the sound hardware is not one of them. </t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>{'rand1': 58134, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 57357}</t>
+          <t>{'rand1': 76100, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 23349}</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDU4MTM0LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNTczNTd9'</t>
+          <t>b'eydyYW5kMSc6IDc2MTAwLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMjMzNDl9'</t>
         </is>
       </c>
     </row>
@@ -3357,24 +3400,24 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1) Special weapons have another name they use depending on the nature of the weapons.
-2) Yes.  Most materials are classified as weapons, chemically.</t>
+          <t>10 years old here  
+why?</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-I think you're thinking of "Chemical Engineering", which is the study of substances and how they behave under different conditions. </t>
+          <t xml:space="preserve">300 years ago, guns were made from wood, metal, and gunpowder.  We still call them guns today.  Guns are made from chemicals, so chemical weapons are weapons made from chemicals. 
+</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>{'rand1': 84638, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 62453}</t>
+          <t>{'rand1': 46498, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 48172}</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDg0NjM4LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNjI0NTN9'</t>
+          <t>b'eydyYW5kMSc6IDQ2NDk4LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNDgxNzJ9'</t>
         </is>
       </c>
     </row>
@@ -3389,22 +3432,23 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2000 calories is a lot of food.  You will get full, and it would be hard to eat more than that at one sitting.  But, you don't get full, you get tired.  Your body is using the calories, but not storing them, and it needs more.  So, even though you</t>
+          <t xml:space="preserve">2000 calories is the estimate for a man, a woman's figure is 1800. 
+A woman's body is also more efficient at burning calories, so she needs less than a man to sustain herself. </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2000 calories worth of food in one sitting should give you enough energy to keep you going, provided you're actually taking in those calories</t>
+          <t xml:space="preserve">2000 calories is not "enough", it's just maybe a little less than you need. That's why some stuff like restaurants don't say you should eat like 2000 calories to sustain your average daily habits. </t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>{'rand1': 8672, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 44100}</t>
+          <t>{'rand1': 72489, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 61314}</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDg2NzIsICdkb19zd2FwJzogVHJ1ZSwgJ2Fuc3dlcjEnOiAnN0JfY3AtMjAwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICczQl9jcC0yNTAwLmFuc3dlcicsICdyYW5kMic6IDQ0MTAwfQ=='</t>
+          <t>b'eydyYW5kMSc6IDcyNDg5LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA2MTMxNH0='</t>
         </is>
       </c>
     </row>
@@ -3419,22 +3463,23 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1. Water is not allowed to settle for an extended period of time. 2. Water is not treated with additives. 3. Water is not fluoridated. 4. Water is not cleaned. 5. Fluoride is not added to water. 6. Water is not treated with cleaning additives. 7. Fluor</t>
+          <t>1. Fluoride is not an additive. 2. Fluoride is not a chemical. 3. Fluoride is not added. 4. Fluoride is not a chemical. 5. Fluoride is not added. 6. Fluoride is not a chemical. 7. Fluoride is not added.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>10, so its cheating.</t>
+          <t>75%+ of added cleaning chemicals are removed by another process after filtering.
+Furthermore,  dignity.</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>{'rand1': 51920, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 32041}</t>
+          <t>{'rand1': 69082, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 22982}</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDUxOTIwLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAzMjA0MX0='</t>
+          <t>b'eydyYW5kMSc6IDY5MDgyLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAyMjk4Mn0='</t>
         </is>
       </c>
     </row>
@@ -3449,26 +3494,23 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>4. If the fluid is a liquid, it will shrink, because the molecules move further away from each other. 
-5. If the fluid is a gas, it will expand, because the molecules move closer together. 
-6. If the fluid is a solid, it will expand, because the molecules are squished together. 
-7. If the fluid is a liquid, it will expand, because the mole</t>
+          <t>1. When warm things expand, their molecules are rubbing against each other. At lower T they are sliding down the walls with a lot more energy. This causes more force. So ice is kind of a strange state of matter.
+2. Also, you're forgetting the surface tension of water (and other liquids). When you cool something to freezing, that surface area gets smaller. So you have to put more molecules on there to cover</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Water does expand when it changes from a liquid to a solid. The cold gets colder so it gets denser while the warm gets warmer so it gets fewer molecules per cubic meter. </t>
+          <t xml:space="preserve"> When ice is formed from water, the molecules are pushed closer together, raising the density.  The density of ice is 0.92g/cm^3, whereas the density of water is 1.00g/cm^3.  So, ice takes up more volume per gram than water.</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>{'rand1': 43975, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 5267}</t>
+          <t>{'rand1': 76416, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 25049}</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQzOTc1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1MjY3fQ=='</t>
+          <t>b'eydyYW5kMSc6IDc2NDE2LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMjUwNDl9'</t>
         </is>
       </c>
     </row>
@@ -3483,23 +3525,25 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>10% performance between these 2. Thats it.</t>
+          <t>3.5Ghz comes on an i5. if you bought a i7 it might be 4.0 or 4.5Ghz. i7 usually has an at a higher clock speed but requires a higher power supply for the extra heat it produces.
+these aren't even the same processor. the Phenom II has a 3.6 GHz version. just making sure that points out how</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3.5 GHz isn't the speed of the processor. It's the speed of the processor's core, and the i5 and i7 have four cores each. So you're paying more for the i7 because it has four cores rather than two.
-Edit: I'm assuming you're talking about new i5 and i7 processors, not old ones.</t>
+          <t xml:space="preserve">
+From what I've read, the i7 is more of a "performance" processor, while the i5 is more of a "power" processor.  The i7 has a higher thermal design power (TDP), which means it can handle more heat.  The i5 has a lower TDP, which means it runs cooler and uses less power.
+The i5 is what you'd get in a</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>{'rand1': 50638, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 51990}</t>
+          <t>{'rand1': 84218, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 85593}</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDUwNjM4LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNTE5OTB9'</t>
+          <t>b'eydyYW5kMSc6IDg0MjE4LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogODU1OTN9'</t>
         </is>
       </c>
     </row>
@@ -3512,29 +3556,21 @@
           <t>Why do pre packaged soft baked cookies (ex. Chips Ahoy Chewy, Pillsbury Minis, Mrs. Fields Individually Wrapped) all have a relatively similar distinct flavor &amp;amp; aftertaste that are different from freshed baked cookies?</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>1- Time. 
-Many of these cookies are baked off site, and then shipped to the store. 
-2- Ingredients. 
-The ingredients are designed to last for a long time. 
-3</t>
-        </is>
-      </c>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>6 weeks in the fridge (sometimes it's kept for longer) causes them to become overly sweet and is what makes them likable.
-This is the result of glucose becoming more concentrated due to being exposed to a different chemical environment.</t>
+          <t>1. It's cheaper to bake a whole batch of cookies at once rather than bake them individually. 
+2. The cookies are artificially flavored.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>{'rand1': 57237, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 62666}</t>
+          <t>{'rand1': 48656, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 37867}</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDU3MjM3LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA2MjY2Nn0='</t>
+          <t>b'eydyYW5kMSc6IDQ4NjU2LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMzc4Njd9'</t>
         </is>
       </c>
     </row>
@@ -3549,29 +3585,25 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 things:
-1. When you wake up, you're pretty much starving.
-2. When you've eaten a meal, your body recognizes the insulin response.
-Both of these things make you feel hungrier faster.
-</t>
+          <t xml:space="preserve">
+For most people, breakfast is the first meal of the day.  You've gone a good 8-10 hours without eating.  You haven't had enough food for your body to use.  So you feel hungrier. </t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
           <t xml:space="preserve">
-#### What newcomers should know 
-It is part of the Circadian rhythm.  After the body's clock hits the sleep or light "mood" period it thinks it needs to eat to reset and redevelop the sleep/casual and so on cycle
-So eating at that time, particularly to the point of excess can overload the system, and so the body thinks is in a "danger" period and fatty acids called Adipose are</t>
+Well basically, your body is expecting food to be around all day. In the morning, the sun makes you wake up and feel hungry because it's light, making it seem mid-day even if it's night.
+Also, it's hard to avoid having carbs in the morning because it's a trap to start your body off right. If you never ready after the night, you're most likely to feel hungry.</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>{'rand1': 49039, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 83737}</t>
+          <t>{'rand1': 34019, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 73060}</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQ5MDM5LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4MzczN30='</t>
+          <t>b'eydyYW5kMSc6IDM0MDE5LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3MzA2MH0='</t>
         </is>
       </c>
     </row>
@@ -3586,25 +3618,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1. You would become addicted. 2. You would become addicted to the drug that is making you addicted to it. 3. You would become addicted to that drug, that is making you addicted to it, that is making you addicted to it. 4. You would become addicted to that drug, that is making you addicted to it, that is making you addicted to it, that is making you addicted to it. 5.</t>
+          <t xml:space="preserve">
+they'd be addicted to it. 
+Sugar, caffeine, and nicotine are all addictive substances. 
+Edit: 
+Also, methamphetamines are a stimulant, and are addictive. </t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-* After increasing doses the user would go into convulsions due to the excess stimulation of the brain and body's reaction to the drug that is missing..
-* Because the brain loves and looks for stimuli the final overdose of stimuli would cause pretty rapid death.
-* OR the person without a stimulant may become quite euphoric itself on the absence of stimulant which will cause fatal heart failure.</t>
+          <t>1. Diversion.  If the drug took precedence over everything else in their life, maybe if the authorities tried to make them leave for a more addictive drug, they would fight back so hard they would put themselves in prison until they got the help they needed.
+2. Predisposition.  According to a study published this month, past use of drugs might make you more likely to get addicted to the next one.  Alcoholics have</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>{'rand1': 86796, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 75240}</t>
+          <t>{'rand1': 59861, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 45939}</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDg2Nzk2LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3NTI0MH0='</t>
+          <t>b'eydyYW5kMSc6IDU5ODYxLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0NTkzOX0='</t>
         </is>
       </c>
     </row>
@@ -3619,27 +3653,24 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Genetics. 
-2. Practice. 
-3. Flexibility. 
-4. Muscle strength. 
-</t>
+          <t>Ask that guy whose legs and arms are completely able to do everything a double joint person's arms and legs can do.  They often can play any sort of sporting event (tennis to baseball etc.) without problems.
+Although many double joint people have severe scoliosis, there are those who are able to have a normal Jellyfish like spine, allowing them to walk upright with only mild scoliosis(although many have many chairs!).</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1 million years of evolution resulting in specialized body/limbs makes happens. You're born with the number of different joints in your body that you have. The hands is one, the feet are another, the back is another, the jaw another etc. If your joint is a bit more flexible than average then you'll be able to do stuff you may not have always been able to do before.
-edit: modified tldr</t>
+          <t xml:space="preserve">
+I'm double jointed in my fingers and toes. I can put my tongue between my thumb and my pointer finger. No big deal. </t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>{'rand1': 70265, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 84005}</t>
+          <t>{'rand1': 30739, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 89977}</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDcwMjY1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4NDAwNX0='</t>
+          <t>b'eydyYW5kMSc6IDMwNzM5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogODk5Nzd9'</t>
         </is>
       </c>
     </row>
@@ -3654,24 +3685,25 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> no, im glad someone asked about this kind of shit, ive seen it my life time, they just laugh for no reason whatsoever at what ever they see, or because it just seems funny to them, whether its a serious video or just an old man, trying to get their taxes done, im pretty sure theyre just really shut off mentally. 
-they laugh in front of people, and appear seemingly phased with everything they do, constantly moving around feel a little sticky</t>
+          <t xml:space="preserve"> In my experience, they aren't.  It's more like they've given up on trying to suppress the symptoms of their illness.  They've decided to just accept that they're not going to be well, and they're going to laugh at everything in the hopes that it will make them feel a little better.  I've seen a few people do this, and it's really sad.</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve">99% of the time, no. People who smile or laugh all the time are usually not mentally ill. They might be, but the reason they smile or laugh is because they have something to smile or laugh about. 
-Mental illness makes you not feel happiness, or not feel anything at all. </t>
+          <t xml:space="preserve">
+“Say a word with an [  ]( http://www.mime-life.com/mimopictures/Mimopics/29msm018.gif  ) sound to them. They're even funnier than usual.
+Give them a loud, difficult laugh. They even crack up more than usual!"
+I know I am a throat-clearing, fore-chewing sobs who laughs,</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>{'rand1': 62408, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 60555}</t>
+          <t>{'rand1': 69264, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 7617}</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDYyNDA4LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNjA1NTV9'</t>
+          <t>b'eydyYW5kMSc6IDY5MjY0LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3NjE3fQ=='</t>
         </is>
       </c>
     </row>
@@ -3686,24 +3718,29 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1) Other companies are selling for about $2.10 tickets (Kayak.com) when leaving a $2.50 would make these tickets a bit further profit.
-2) Monopsonistic world</t>
+          <t>25 cents is the cost of postage.  If they mailed you the tickets, they'd have to pay postage.  So they're already getting reimbursed.</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2.50 is the cost of the paper ticket they print, and the cost of their employees time.
-If you can print at home, they don't have to pay for the paper or the employee time.</t>
+          <t>1) Stamp
+2) Postage
+3) Paper
+4) Paper
+5) Mail box
+6) Effort by the postal worker and the post office to tigger the printer-people hate that
+Who decides how much is being charged to mail stuff?  Can the customer demand the further charge to be removed?  Who knows what they're not being told?
+Umm</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>{'rand1': 41068, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 87791}</t>
+          <t>{'rand1': 65291, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 16544}</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQxMDY4LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogODc3OTF9'</t>
+          <t>b'eydyYW5kMSc6IDY1MjkxLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAxNjU0NH0='</t>
         </is>
       </c>
     </row>
@@ -3718,24 +3755,26 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 weeks is enough time for bacteria and other things to build up that would make you sick. If you ate that food chance are very high you would get sick and die. </t>
+          <t>1) inside is oxygen and decompose stuff.
+2) body can use it better, for it's own growth. 
+edit: good one isubi.
+edit 2: wrong word. saying that the dead body is dead because it not living anymore, but the skin does not function anymore, like skin does not dry, if your body is dead.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Dead body has no activity in the brain. 
-2. Live body is conscious. 
-3. Dead body is still a body. </t>
+          <t>1) The body is alive because it is made of organic material, and organic material is alive 2) The body is dead because it has no more organic material 3) The body is dead because of organic material 4) The body is dead because of organic material
+And so on.</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>{'rand1': 91226, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 55057}</t>
+          <t>{'rand1': 75615, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 73051}</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDkxMjI2LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNTUwNTd9'</t>
+          <t>b'eydyYW5kMSc6IDc1NjE1LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNzMwNTF9'</t>
         </is>
       </c>
     </row>
@@ -3750,25 +3789,30 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1. She has a stomach, not a head, and she doesn't actually eat food. She only barks/jumps/etc.
-2. Dogs are pack animals. It's how they survive. Over time, aftergassing, their tongue becomes oilier, tasting less it of the faint taste of cooked animal matter. Once stung with portion, either from purely accidental expulsion, hungrily in balance</t>
+          <t>1. Food is a chemical, and the smell of food is a chemical. 
+2. The smell of food is a chemical that the dog has been conditioned to react to. 
+3. Conditioning is a learned behavior. 
+4. The smell of food is a chemical that the dog has been conditioned to react to when he's hungry. 
+5. The smell of food is a</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2 things:
-1) she's got a sense of smell 1000 times better than yours.
-2) she's not human. She's not supposed to be able to eat human food, and her body is not adapted to it.  This is a big part of what makes her sick.</t>
+          <t xml:space="preserve">1 part of it is their natural pack dynamics- they won't eat what those around them eat and you will too in an attempt to early nest.
+It's also conditioning through their mother. She will teach them to:
+1) stay away from non-mammals (people food) to me her and prevent anyyself from becoming "sick"
+2) avoid harping human scent
+</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>{'rand1': 30526, 'do_swap': False, 'answer1': '3B_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 2978}</t>
+          <t>{'rand1': 51118, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 80424}</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDMwNTI2LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICczQl9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMjk3OH0='</t>
+          <t>b'eydyYW5kMSc6IDUxMTE4LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4MDQyNH0='</t>
         </is>
       </c>
     </row>
@@ -3783,24 +3827,24 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>300 years ago, there was a huge amount of pollution in the Atlantic - human, animal, industrial. This led to the collapse of the cod population and the widespread use of aquaculture (salmon farming) in the Atlantic. The salmon from the Atlantic have been farmed for so long that their immune systems have adapted to the unique environment created by the farms. As a result, they are safe</t>
+          <t>1) Salmon from the Pacific are exposed to a lot more pollution 2) Salmon from the Atlantic are usually farmed and not allowed to go to sea for a certain period 3) Salmon from the Atlantic are usually (not always) smaller than salmon from the Pacific 4) Salmon from the Pacific can be exposed to a lot of different parasites 5) Salmon from the Atlantic are usually farmed and</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the epidermal layer of Atlantic salmon is shiny, giving them a unique coating that discourages them from getting parasites.  Salmon from the elsewhere don't have this, so they have to become parasite-free first before they can be sold to people.  
-The shinyness is not the only factor that contributes to avoiding parasites.  
-P答erator</t>
+          <t>1. Washington is a huge state in the Pacific, so they have more natural treatment of salmon where the Atlantic generally only sees people
+2. Wild salmon from Washington are smoked and brined/salted to remove parasites
+3. They're quite tasty despite being parasite-heavy</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>{'rand1': 61369, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 62331}</t>
+          <t>{'rand1': 27025, 'do_swap': True, 'answer1': '7B_cp-2000.answer', 'answer2': '3B_cp-2500.answer', 'rand2': 62385}</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDYxMzY5LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA2MjMzMX0='</t>
+          <t>b'eydyYW5kMSc6IDI3MDI1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnM0JfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA2MjM4NX0='</t>
         </is>
       </c>
     </row>
